--- a/products.xlsx
+++ b/products.xlsx
@@ -63526,8 +63526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14188" uniqueCount="7341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14337" uniqueCount="7477">
   <si>
     <t>ProductCode</t>
   </si>
@@ -22080,6 +22080,414 @@
   </si>
   <si>
     <t>7412.mp3</t>
+  </si>
+  <si>
+    <t>رفلکتا</t>
+  </si>
+  <si>
+    <t>رفلکتا لوسيون مرطوب صورت و بدن خشک 200گ 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا کرم بازسازي  والتيام صورت وگردن بدن 30گ 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا کرم ضدترک واستريا بدن 75گ 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا ژل آنتي آکنه صورت و بدن چرب 75گ 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا ژل مرطوب فاقدچربي پوست چرب مختلط آکنه 40گ1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا کرم روشن کننده پوست معمولي وحساس25گ1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا ژل شستشو خشک وحساس مستعدبه قرمزي 150گ 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا ژل صورت چرب ومختلط وداراي آکنه 150گ 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا کرم ژل مرطوب خشک وحساس ومستعدقرمزي 40گ1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا ژل ضدچروک دور چشم 20گ 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا کرم وژل پپتايد پوست چروک سطحي بطري30گ1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا کرم وژل پپتايد پوست چروک سطحي کاسه50گ1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا استيک ضدآفتاب50 رنگي فاقدجاذبه شيميايي 1+6</t>
+  </si>
+  <si>
+    <t>رفلکتا ضدآفتاب30 فلوئيد فاقدجاذبه شيميايي 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا لوسيون مرطوب صورت و بدن خشک 200گ 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا کرم بازسازي والتيام صورت وگردن بدن 30گ 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا کرم ضدترک واستريا بدن 75گ 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا ژل آنتي آکنه صورت و بدن چرب 75گ 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا ژل مرطوب فاقدچربي پوست چرب مختلط آکنه 40گ1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا کرم روشن کننده پوست معمولي وحساس25گ1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا ژل شستشو خشک وحساس مستعدبه قرمزي 150گ 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا ژل شستشو چرب ومختلط وداراي آکنه 150گ 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا کرم ژل مرطوب خشک وحساس ومستعدقرمزي 40گ1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا ژل ضدچروک دور چشم 20گ 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا کرم وژل پپتايد پوست چروک سطحي بطري30گ1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا کرم وژل پپتايد پوست چروک سطحي کاسه50گ1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا استيک ضدآفتاب50 رنگي فاقدجاذبه شيميايي 1+6</t>
+  </si>
+  <si>
+    <t>* رفلکتا ضدآفتاب30 فلوئيد فاقدجاذبه شيميايي 1+6</t>
+  </si>
+  <si>
+    <t>P9062</t>
+  </si>
+  <si>
+    <t>P9063</t>
+  </si>
+  <si>
+    <t>P9064</t>
+  </si>
+  <si>
+    <t>P9065</t>
+  </si>
+  <si>
+    <t>P9066</t>
+  </si>
+  <si>
+    <t>P9067</t>
+  </si>
+  <si>
+    <t>P9068</t>
+  </si>
+  <si>
+    <t>P9069</t>
+  </si>
+  <si>
+    <t>P9070</t>
+  </si>
+  <si>
+    <t>P9071</t>
+  </si>
+  <si>
+    <t>P9072</t>
+  </si>
+  <si>
+    <t>P9073</t>
+  </si>
+  <si>
+    <t>P9074</t>
+  </si>
+  <si>
+    <t>P9075</t>
+  </si>
+  <si>
+    <t>P999062</t>
+  </si>
+  <si>
+    <t>P999063</t>
+  </si>
+  <si>
+    <t>P999064</t>
+  </si>
+  <si>
+    <t>P999065</t>
+  </si>
+  <si>
+    <t>P999066</t>
+  </si>
+  <si>
+    <t>P999067</t>
+  </si>
+  <si>
+    <t>P999068</t>
+  </si>
+  <si>
+    <t>P999069</t>
+  </si>
+  <si>
+    <t>P999070</t>
+  </si>
+  <si>
+    <t>P999071</t>
+  </si>
+  <si>
+    <t>P999072</t>
+  </si>
+  <si>
+    <t>P999073</t>
+  </si>
+  <si>
+    <t>P999074</t>
+  </si>
+  <si>
+    <t>P999075</t>
+  </si>
+  <si>
+    <t>9062.jpg</t>
+  </si>
+  <si>
+    <t>9063.jpg</t>
+  </si>
+  <si>
+    <t>9064.jpg</t>
+  </si>
+  <si>
+    <t>9065.jpg</t>
+  </si>
+  <si>
+    <t>9066.jpg</t>
+  </si>
+  <si>
+    <t>9067.jpg</t>
+  </si>
+  <si>
+    <t>9068.jpg</t>
+  </si>
+  <si>
+    <t>9069.jpg</t>
+  </si>
+  <si>
+    <t>9070.jpg</t>
+  </si>
+  <si>
+    <t>9071.jpg</t>
+  </si>
+  <si>
+    <t>9072.jpg</t>
+  </si>
+  <si>
+    <t>9073.jpg</t>
+  </si>
+  <si>
+    <t>9074.jpg</t>
+  </si>
+  <si>
+    <t>9075.jpg</t>
+  </si>
+  <si>
+    <t>999062.jpg</t>
+  </si>
+  <si>
+    <t>999063.jpg</t>
+  </si>
+  <si>
+    <t>999064.jpg</t>
+  </si>
+  <si>
+    <t>999065.jpg</t>
+  </si>
+  <si>
+    <t>999066.jpg</t>
+  </si>
+  <si>
+    <t>999067.jpg</t>
+  </si>
+  <si>
+    <t>999068.jpg</t>
+  </si>
+  <si>
+    <t>999069.jpg</t>
+  </si>
+  <si>
+    <t>999070.jpg</t>
+  </si>
+  <si>
+    <t>999071.jpg</t>
+  </si>
+  <si>
+    <t>999072.jpg</t>
+  </si>
+  <si>
+    <t>999073.jpg</t>
+  </si>
+  <si>
+    <t>999074.jpg</t>
+  </si>
+  <si>
+    <t>999075.jpg</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
 </sst>
 </file>
@@ -22557,10 +22965,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O1776"/>
+  <dimension ref="A1:O1804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1735" workbookViewId="0">
-      <selection activeCell="D1752" sqref="D1752"/>
+    <sheetView tabSelected="1" topLeftCell="A1212" workbookViewId="0">
+      <selection activeCell="A1233" sqref="A1233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27070,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>15</v>
@@ -43301,16 +43709,16 @@
     </row>
     <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
-        <v>1783</v>
+        <v>1896</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1784</v>
+        <v>1897</v>
       </c>
       <c r="C559" s="2">
-        <v>821933</v>
+        <v>4954214</v>
       </c>
       <c r="D559" s="2">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>1785</v>
@@ -43324,7 +43732,7 @@
       <c r="J559" s="7"/>
       <c r="K559" s="7"/>
       <c r="L559" s="4" t="s">
-        <v>1786</v>
+        <v>1898</v>
       </c>
       <c r="M559" s="5" t="s">
         <v>1787</v>
@@ -43333,21 +43741,21 @@
         <v>4876</v>
       </c>
       <c r="O559" s="4" t="s">
-        <v>6127</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
-        <v>1788</v>
+        <v>1899</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1789</v>
+        <v>1900</v>
       </c>
       <c r="C560" s="2">
-        <v>11745869</v>
+        <v>632800</v>
       </c>
       <c r="D560" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>1785</v>
@@ -43361,30 +43769,30 @@
       <c r="J560" s="7"/>
       <c r="K560" s="7"/>
       <c r="L560" s="4" t="s">
-        <v>1790</v>
+        <v>1901</v>
       </c>
       <c r="M560" s="5" t="s">
-        <v>1787</v>
+        <v>619</v>
       </c>
       <c r="N560" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O560" s="4" t="s">
-        <v>6128</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
-        <v>1791</v>
+        <v>1902</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1792</v>
+        <v>1903</v>
       </c>
       <c r="C561" s="2">
-        <v>7976331</v>
+        <v>3144790</v>
       </c>
       <c r="D561" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>1785</v>
@@ -43398,30 +43806,30 @@
       <c r="J561" s="7"/>
       <c r="K561" s="7"/>
       <c r="L561" s="4" t="s">
-        <v>1793</v>
+        <v>1904</v>
       </c>
       <c r="M561" s="5" t="s">
-        <v>1787</v>
+        <v>2078</v>
       </c>
       <c r="N561" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O561" s="4" t="s">
-        <v>6129</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
-        <v>1794</v>
+        <v>1905</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1795</v>
+        <v>1906</v>
       </c>
       <c r="C562" s="2">
-        <v>2391400</v>
+        <v>3649000</v>
       </c>
       <c r="D562" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>1785</v>
@@ -43435,30 +43843,30 @@
       <c r="J562" s="7"/>
       <c r="K562" s="7"/>
       <c r="L562" s="4" t="s">
-        <v>1796</v>
+        <v>1907</v>
       </c>
       <c r="M562" s="5" t="s">
-        <v>1787</v>
+        <v>7426</v>
       </c>
       <c r="N562" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O562" s="4" t="s">
-        <v>6130</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
-        <v>1797</v>
+        <v>1908</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1798</v>
+        <v>1909</v>
       </c>
       <c r="C563" s="2">
-        <v>7965094</v>
+        <v>395500</v>
       </c>
       <c r="D563" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>1785</v>
@@ -43472,30 +43880,30 @@
       <c r="J563" s="7"/>
       <c r="K563" s="7"/>
       <c r="L563" s="4" t="s">
-        <v>1799</v>
+        <v>1910</v>
       </c>
       <c r="M563" s="5" t="s">
-        <v>1787</v>
+        <v>7427</v>
       </c>
       <c r="N563" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O563" s="4" t="s">
-        <v>6131</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
-        <v>1800</v>
+        <v>1911</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1801</v>
+        <v>1912</v>
       </c>
       <c r="C564" s="2">
-        <v>800600</v>
+        <v>480815</v>
       </c>
       <c r="D564" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>1785</v>
@@ -43509,30 +43917,30 @@
       <c r="J564" s="7"/>
       <c r="K564" s="7"/>
       <c r="L564" s="4" t="s">
-        <v>1802</v>
+        <v>1913</v>
       </c>
       <c r="M564" s="5" t="s">
-        <v>1787</v>
+        <v>7428</v>
       </c>
       <c r="N564" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O564" s="4" t="s">
-        <v>6132</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
-        <v>1803</v>
+        <v>1914</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1804</v>
+        <v>1915</v>
       </c>
       <c r="C565" s="2">
-        <v>2391400</v>
+        <v>348817</v>
       </c>
       <c r="D565" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>1785</v>
@@ -43546,30 +43954,30 @@
       <c r="J565" s="7"/>
       <c r="K565" s="7"/>
       <c r="L565" s="4" t="s">
-        <v>1805</v>
+        <v>1916</v>
       </c>
       <c r="M565" s="5" t="s">
-        <v>1787</v>
+        <v>7429</v>
       </c>
       <c r="N565" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O565" s="4" t="s">
-        <v>6133</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
-        <v>1806</v>
+        <v>1917</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1807</v>
+        <v>1918</v>
       </c>
       <c r="C566" s="2">
-        <v>2029819</v>
+        <v>898220</v>
       </c>
       <c r="D566" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>1785</v>
@@ -43583,30 +43991,30 @@
       <c r="J566" s="7"/>
       <c r="K566" s="7"/>
       <c r="L566" s="4" t="s">
-        <v>1808</v>
+        <v>1919</v>
       </c>
       <c r="M566" s="5" t="s">
-        <v>1787</v>
+        <v>7430</v>
       </c>
       <c r="N566" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O566" s="4" t="s">
-        <v>6134</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="4" t="s">
-        <v>1809</v>
+        <v>1920</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1810</v>
+        <v>1921</v>
       </c>
       <c r="C567" s="2">
-        <v>1500922</v>
+        <v>1130565</v>
       </c>
       <c r="D567" s="2">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>1785</v>
@@ -43620,30 +44028,30 @@
       <c r="J567" s="7"/>
       <c r="K567" s="7"/>
       <c r="L567" s="4" t="s">
-        <v>1811</v>
+        <v>1922</v>
       </c>
       <c r="M567" s="5" t="s">
-        <v>1787</v>
+        <v>7431</v>
       </c>
       <c r="N567" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O567" s="4" t="s">
-        <v>6135</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
-        <v>1812</v>
+        <v>1923</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1813</v>
+        <v>1924</v>
       </c>
       <c r="C568" s="2">
-        <v>510196</v>
+        <v>2357813</v>
       </c>
       <c r="D568" s="2">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>1785</v>
@@ -43657,30 +44065,30 @@
       <c r="J568" s="7"/>
       <c r="K568" s="7"/>
       <c r="L568" s="4" t="s">
-        <v>1814</v>
+        <v>1925</v>
       </c>
       <c r="M568" s="5" t="s">
-        <v>1787</v>
+        <v>7432</v>
       </c>
       <c r="N568" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O568" s="4" t="s">
-        <v>6136</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
-        <v>1815</v>
+        <v>1926</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1816</v>
+        <v>1927</v>
       </c>
       <c r="C569" s="2">
-        <v>696080</v>
+        <v>2339100</v>
       </c>
       <c r="D569" s="2">
-        <v>54</v>
+        <v>412</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>1785</v>
@@ -43694,30 +44102,30 @@
       <c r="J569" s="7"/>
       <c r="K569" s="7"/>
       <c r="L569" s="4" t="s">
-        <v>1817</v>
+        <v>1928</v>
       </c>
       <c r="M569" s="5" t="s">
-        <v>1787</v>
+        <v>7433</v>
       </c>
       <c r="N569" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O569" s="4" t="s">
-        <v>6137</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
-        <v>1818</v>
+        <v>1866</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1819</v>
+        <v>1867</v>
       </c>
       <c r="C570" s="2">
-        <v>333297</v>
+        <v>747212</v>
       </c>
       <c r="D570" s="2">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>1785</v>
@@ -43731,30 +44139,30 @@
       <c r="J570" s="7"/>
       <c r="K570" s="7"/>
       <c r="L570" s="4" t="s">
-        <v>1820</v>
+        <v>1868</v>
       </c>
       <c r="M570" s="5" t="s">
-        <v>1787</v>
+        <v>619</v>
       </c>
       <c r="N570" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O570" s="4" t="s">
-        <v>6138</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
-        <v>1821</v>
+        <v>1869</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1822</v>
+        <v>1870</v>
       </c>
       <c r="C571" s="2">
-        <v>3459269</v>
+        <v>10678060</v>
       </c>
       <c r="D571" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>1785</v>
@@ -43768,30 +44176,30 @@
       <c r="J571" s="7"/>
       <c r="K571" s="7"/>
       <c r="L571" s="4" t="s">
-        <v>1823</v>
+        <v>1871</v>
       </c>
       <c r="M571" s="5" t="s">
-        <v>1787</v>
+        <v>7434</v>
       </c>
       <c r="N571" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O571" s="4" t="s">
-        <v>6139</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
-        <v>1824</v>
+        <v>1872</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1825</v>
+        <v>1873</v>
       </c>
       <c r="C572" s="2">
-        <v>3716570</v>
+        <v>747212</v>
       </c>
       <c r="D572" s="2">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>1785</v>
@@ -43805,30 +44213,30 @@
       <c r="J572" s="7"/>
       <c r="K572" s="7"/>
       <c r="L572" s="4" t="s">
-        <v>1826</v>
+        <v>1874</v>
       </c>
       <c r="M572" s="5" t="s">
-        <v>1787</v>
+        <v>7435</v>
       </c>
       <c r="N572" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O572" s="4" t="s">
-        <v>6140</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="4" t="s">
-        <v>1827</v>
+        <v>1875</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1828</v>
+        <v>1876</v>
       </c>
       <c r="C573" s="2">
-        <v>435050</v>
+        <v>7240994</v>
       </c>
       <c r="D573" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>1785</v>
@@ -43842,30 +44250,30 @@
       <c r="J573" s="7"/>
       <c r="K573" s="7"/>
       <c r="L573" s="4" t="s">
-        <v>1829</v>
+        <v>1877</v>
       </c>
       <c r="M573" s="5" t="s">
-        <v>1787</v>
+        <v>7436</v>
       </c>
       <c r="N573" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O573" s="4" t="s">
-        <v>6141</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="4" t="s">
-        <v>1830</v>
+        <v>1878</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1831</v>
+        <v>1879</v>
       </c>
       <c r="C574" s="2">
-        <v>285890</v>
+        <v>6297264</v>
       </c>
       <c r="D574" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>1785</v>
@@ -43879,30 +44287,30 @@
       <c r="J574" s="7"/>
       <c r="K574" s="7"/>
       <c r="L574" s="4" t="s">
-        <v>1832</v>
+        <v>1880</v>
       </c>
       <c r="M574" s="5" t="s">
-        <v>1787</v>
+        <v>7437</v>
       </c>
       <c r="N574" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O574" s="4" t="s">
-        <v>6142</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="4" t="s">
-        <v>1833</v>
+        <v>1881</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1834</v>
+        <v>1882</v>
       </c>
       <c r="C575" s="2">
-        <v>528896</v>
+        <v>4353325</v>
       </c>
       <c r="D575" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>1785</v>
@@ -43916,30 +44324,30 @@
       <c r="J575" s="7"/>
       <c r="K575" s="7"/>
       <c r="L575" s="4" t="s">
-        <v>1835</v>
+        <v>1883</v>
       </c>
       <c r="M575" s="5" t="s">
-        <v>1787</v>
+        <v>7438</v>
       </c>
       <c r="N575" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O575" s="4" t="s">
-        <v>6143</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
-        <v>1836</v>
+        <v>1884</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1837</v>
+        <v>1885</v>
       </c>
       <c r="C576" s="2">
-        <v>414876</v>
+        <v>1845290</v>
       </c>
       <c r="D576" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>1785</v>
@@ -43953,27 +44361,27 @@
       <c r="J576" s="7"/>
       <c r="K576" s="7"/>
       <c r="L576" s="4" t="s">
-        <v>1838</v>
+        <v>1886</v>
       </c>
       <c r="M576" s="5" t="s">
-        <v>1787</v>
+        <v>7439</v>
       </c>
       <c r="N576" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O576" s="4" t="s">
-        <v>6144</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="4" t="s">
-        <v>1839</v>
+        <v>1887</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1840</v>
+        <v>1888</v>
       </c>
       <c r="C577" s="2">
-        <v>914848</v>
+        <v>1473640</v>
       </c>
       <c r="D577" s="2">
         <v>0</v>
@@ -43990,30 +44398,30 @@
       <c r="J577" s="7"/>
       <c r="K577" s="7"/>
       <c r="L577" s="4" t="s">
-        <v>1841</v>
+        <v>1889</v>
       </c>
       <c r="M577" s="5" t="s">
-        <v>1787</v>
+        <v>7440</v>
       </c>
       <c r="N577" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O577" s="4" t="s">
-        <v>6145</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="4" t="s">
-        <v>1842</v>
+        <v>1890</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1843</v>
+        <v>1891</v>
       </c>
       <c r="C578" s="2">
-        <v>1500922</v>
+        <v>463815</v>
       </c>
       <c r="D578" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>1785</v>
@@ -44027,30 +44435,30 @@
       <c r="J578" s="7"/>
       <c r="K578" s="7"/>
       <c r="L578" s="4" t="s">
-        <v>1844</v>
+        <v>1892</v>
       </c>
       <c r="M578" s="5" t="s">
-        <v>1787</v>
+        <v>7441</v>
       </c>
       <c r="N578" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O578" s="4" t="s">
-        <v>6146</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="4" t="s">
-        <v>1845</v>
+        <v>1944</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1846</v>
+        <v>1945</v>
       </c>
       <c r="C579" s="2">
-        <v>1243621</v>
+        <v>1364475</v>
       </c>
       <c r="D579" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>1785</v>
@@ -44064,30 +44472,30 @@
       <c r="J579" s="7"/>
       <c r="K579" s="7"/>
       <c r="L579" s="4" t="s">
-        <v>1847</v>
+        <v>1946</v>
       </c>
       <c r="M579" s="5" t="s">
-        <v>1787</v>
+        <v>7442</v>
       </c>
       <c r="N579" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O579" s="4" t="s">
-        <v>6147</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
-        <v>1848</v>
+        <v>1935</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1849</v>
+        <v>1936</v>
       </c>
       <c r="C580" s="2">
-        <v>2401476</v>
+        <v>7251210</v>
       </c>
       <c r="D580" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>1785</v>
@@ -44101,30 +44509,30 @@
       <c r="J580" s="7"/>
       <c r="K580" s="7"/>
       <c r="L580" s="4" t="s">
-        <v>1850</v>
+        <v>1937</v>
       </c>
       <c r="M580" s="5" t="s">
-        <v>1787</v>
+        <v>7443</v>
       </c>
       <c r="N580" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O580" s="4" t="s">
-        <v>6148</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="4" t="s">
-        <v>1851</v>
+        <v>1947</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1852</v>
+        <v>1948</v>
       </c>
       <c r="C581" s="2">
-        <v>2573010</v>
+        <v>183007285</v>
       </c>
       <c r="D581" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>1785</v>
@@ -44138,30 +44546,30 @@
       <c r="J581" s="7"/>
       <c r="K581" s="7"/>
       <c r="L581" s="4" t="s">
-        <v>1853</v>
+        <v>1949</v>
       </c>
       <c r="M581" s="5" t="s">
-        <v>1787</v>
+        <v>7444</v>
       </c>
       <c r="N581" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O581" s="4" t="s">
-        <v>6149</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="4" t="s">
-        <v>1854</v>
+        <v>1938</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1855</v>
+        <v>1939</v>
       </c>
       <c r="C582" s="2">
-        <v>26326740</v>
+        <v>398006484</v>
       </c>
       <c r="D582" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>1785</v>
@@ -44175,30 +44583,30 @@
       <c r="J582" s="7"/>
       <c r="K582" s="7"/>
       <c r="L582" s="4" t="s">
-        <v>1856</v>
+        <v>1940</v>
       </c>
       <c r="M582" s="5" t="s">
-        <v>1787</v>
+        <v>7445</v>
       </c>
       <c r="N582" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O582" s="4" t="s">
-        <v>6150</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="4" t="s">
-        <v>1857</v>
+        <v>1929</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1858</v>
+        <v>1930</v>
       </c>
       <c r="C583" s="2">
-        <v>1678050</v>
+        <v>442974125</v>
       </c>
       <c r="D583" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>1785</v>
@@ -44212,30 +44620,30 @@
       <c r="J583" s="7"/>
       <c r="K583" s="7"/>
       <c r="L583" s="4" t="s">
-        <v>1859</v>
+        <v>1931</v>
       </c>
       <c r="M583" s="5" t="s">
-        <v>1787</v>
+        <v>7446</v>
       </c>
       <c r="N583" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O583" s="4" t="s">
-        <v>6151</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
-        <v>1860</v>
+        <v>1932</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1861</v>
+        <v>1933</v>
       </c>
       <c r="C584" s="2">
-        <v>726649</v>
+        <v>401532084</v>
       </c>
       <c r="D584" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>1785</v>
@@ -44249,30 +44657,30 @@
       <c r="J584" s="7"/>
       <c r="K584" s="7"/>
       <c r="L584" s="4" t="s">
-        <v>1862</v>
+        <v>1934</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>1787</v>
+        <v>7447</v>
       </c>
       <c r="N584" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O584" s="4" t="s">
-        <v>6152</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
-        <v>1863</v>
+        <v>1941</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1864</v>
+        <v>1942</v>
       </c>
       <c r="C585" s="2">
-        <v>726642</v>
+        <v>13644750</v>
       </c>
       <c r="D585" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>1785</v>
@@ -44286,30 +44694,30 @@
       <c r="J585" s="7"/>
       <c r="K585" s="7"/>
       <c r="L585" s="4" t="s">
-        <v>1865</v>
+        <v>1943</v>
       </c>
       <c r="M585" s="5" t="s">
-        <v>1787</v>
+        <v>7448</v>
       </c>
       <c r="N585" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O585" s="4" t="s">
-        <v>6153</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="4" t="s">
-        <v>1866</v>
+        <v>1893</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1867</v>
+        <v>1894</v>
       </c>
       <c r="C586" s="2">
-        <v>747212</v>
+        <v>367837600</v>
       </c>
       <c r="D586" s="2">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>1785</v>
@@ -44323,30 +44731,30 @@
       <c r="J586" s="7"/>
       <c r="K586" s="7"/>
       <c r="L586" s="4" t="s">
-        <v>1868</v>
+        <v>1895</v>
       </c>
       <c r="M586" s="5" t="s">
-        <v>1787</v>
+        <v>7449</v>
       </c>
       <c r="N586" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O586" s="4" t="s">
-        <v>6154</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="4" t="s">
-        <v>1869</v>
+        <v>1845</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1870</v>
+        <v>1846</v>
       </c>
       <c r="C587" s="2">
-        <v>10678060</v>
+        <v>1243621</v>
       </c>
       <c r="D587" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>1785</v>
@@ -44360,27 +44768,27 @@
       <c r="J587" s="7"/>
       <c r="K587" s="7"/>
       <c r="L587" s="4" t="s">
-        <v>1871</v>
+        <v>1847</v>
       </c>
       <c r="M587" s="5" t="s">
-        <v>1787</v>
+        <v>7450</v>
       </c>
       <c r="N587" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O587" s="4" t="s">
-        <v>6155</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
-        <v>1872</v>
+        <v>1848</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1873</v>
+        <v>1849</v>
       </c>
       <c r="C588" s="2">
-        <v>747212</v>
+        <v>2401476</v>
       </c>
       <c r="D588" s="2">
         <v>0</v>
@@ -44397,30 +44805,30 @@
       <c r="J588" s="7"/>
       <c r="K588" s="7"/>
       <c r="L588" s="4" t="s">
-        <v>1874</v>
+        <v>1850</v>
       </c>
       <c r="M588" s="5" t="s">
-        <v>1787</v>
+        <v>7451</v>
       </c>
       <c r="N588" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O588" s="4" t="s">
-        <v>6156</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="4" t="s">
-        <v>1875</v>
+        <v>1851</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1876</v>
+        <v>1852</v>
       </c>
       <c r="C589" s="2">
-        <v>7240994</v>
+        <v>2573010</v>
       </c>
       <c r="D589" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>1785</v>
@@ -44434,30 +44842,30 @@
       <c r="J589" s="7"/>
       <c r="K589" s="7"/>
       <c r="L589" s="4" t="s">
-        <v>1877</v>
+        <v>1853</v>
       </c>
       <c r="M589" s="5" t="s">
-        <v>1787</v>
+        <v>7452</v>
       </c>
       <c r="N589" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O589" s="4" t="s">
-        <v>6157</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
-        <v>1878</v>
+        <v>1854</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1879</v>
+        <v>1855</v>
       </c>
       <c r="C590" s="2">
-        <v>6297264</v>
+        <v>26326740</v>
       </c>
       <c r="D590" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>1785</v>
@@ -44471,30 +44879,30 @@
       <c r="J590" s="7"/>
       <c r="K590" s="7"/>
       <c r="L590" s="4" t="s">
-        <v>1880</v>
+        <v>1856</v>
       </c>
       <c r="M590" s="5" t="s">
-        <v>1787</v>
+        <v>7453</v>
       </c>
       <c r="N590" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O590" s="4" t="s">
-        <v>6158</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="4" t="s">
-        <v>1881</v>
+        <v>1857</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1882</v>
+        <v>1858</v>
       </c>
       <c r="C591" s="2">
-        <v>4353325</v>
+        <v>1678050</v>
       </c>
       <c r="D591" s="2">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>1785</v>
@@ -44508,30 +44916,30 @@
       <c r="J591" s="7"/>
       <c r="K591" s="7"/>
       <c r="L591" s="4" t="s">
-        <v>1883</v>
+        <v>1859</v>
       </c>
       <c r="M591" s="5" t="s">
-        <v>1787</v>
+        <v>7454</v>
       </c>
       <c r="N591" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O591" s="4" t="s">
-        <v>6159</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
-        <v>1884</v>
+        <v>1860</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1885</v>
+        <v>1861</v>
       </c>
       <c r="C592" s="2">
-        <v>1845290</v>
+        <v>726649</v>
       </c>
       <c r="D592" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>1785</v>
@@ -44545,30 +44953,30 @@
       <c r="J592" s="7"/>
       <c r="K592" s="7"/>
       <c r="L592" s="4" t="s">
-        <v>1886</v>
+        <v>1862</v>
       </c>
       <c r="M592" s="5" t="s">
-        <v>1787</v>
+        <v>7455</v>
       </c>
       <c r="N592" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O592" s="4" t="s">
-        <v>6160</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="4" t="s">
-        <v>1887</v>
+        <v>1863</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1888</v>
+        <v>1864</v>
       </c>
       <c r="C593" s="2">
-        <v>1473640</v>
+        <v>726642</v>
       </c>
       <c r="D593" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>1785</v>
@@ -44582,30 +44990,30 @@
       <c r="J593" s="7"/>
       <c r="K593" s="7"/>
       <c r="L593" s="4" t="s">
-        <v>1889</v>
+        <v>1865</v>
       </c>
       <c r="M593" s="5" t="s">
-        <v>1787</v>
+        <v>7456</v>
       </c>
       <c r="N593" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O593" s="4" t="s">
-        <v>6161</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
-        <v>1890</v>
+        <v>1783</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1891</v>
+        <v>1784</v>
       </c>
       <c r="C594" s="2">
-        <v>463815</v>
+        <v>821933</v>
       </c>
       <c r="D594" s="2">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>1785</v>
@@ -44619,30 +45027,30 @@
       <c r="J594" s="7"/>
       <c r="K594" s="7"/>
       <c r="L594" s="4" t="s">
-        <v>1892</v>
+        <v>1786</v>
       </c>
       <c r="M594" s="5" t="s">
-        <v>1787</v>
+        <v>7457</v>
       </c>
       <c r="N594" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O594" s="4" t="s">
-        <v>6162</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="4" t="s">
-        <v>1893</v>
+        <v>1788</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1894</v>
+        <v>1789</v>
       </c>
       <c r="C595" s="2">
-        <v>367837600</v>
+        <v>11745869</v>
       </c>
       <c r="D595" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>1785</v>
@@ -44656,30 +45064,30 @@
       <c r="J595" s="7"/>
       <c r="K595" s="7"/>
       <c r="L595" s="4" t="s">
-        <v>1895</v>
+        <v>1790</v>
       </c>
       <c r="M595" s="5" t="s">
-        <v>1787</v>
+        <v>7458</v>
       </c>
       <c r="N595" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O595" s="4" t="s">
-        <v>6163</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
-        <v>1896</v>
+        <v>1791</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1897</v>
+        <v>1792</v>
       </c>
       <c r="C596" s="2">
-        <v>4954214</v>
+        <v>7976331</v>
       </c>
       <c r="D596" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>1785</v>
@@ -44693,30 +45101,30 @@
       <c r="J596" s="7"/>
       <c r="K596" s="7"/>
       <c r="L596" s="4" t="s">
-        <v>1898</v>
+        <v>1793</v>
       </c>
       <c r="M596" s="5" t="s">
-        <v>1787</v>
+        <v>7459</v>
       </c>
       <c r="N596" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O596" s="4" t="s">
-        <v>6164</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="4" t="s">
-        <v>1899</v>
+        <v>1794</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1900</v>
+        <v>1795</v>
       </c>
       <c r="C597" s="2">
-        <v>632800</v>
+        <v>2391400</v>
       </c>
       <c r="D597" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>1785</v>
@@ -44730,30 +45138,30 @@
       <c r="J597" s="7"/>
       <c r="K597" s="7"/>
       <c r="L597" s="4" t="s">
-        <v>1901</v>
+        <v>1796</v>
       </c>
       <c r="M597" s="5" t="s">
-        <v>1787</v>
+        <v>7460</v>
       </c>
       <c r="N597" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O597" s="4" t="s">
-        <v>6165</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
-        <v>1902</v>
+        <v>1797</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1903</v>
+        <v>1798</v>
       </c>
       <c r="C598" s="2">
-        <v>3144790</v>
+        <v>7965094</v>
       </c>
       <c r="D598" s="2">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>1785</v>
@@ -44767,30 +45175,30 @@
       <c r="J598" s="7"/>
       <c r="K598" s="7"/>
       <c r="L598" s="4" t="s">
-        <v>1904</v>
+        <v>1799</v>
       </c>
       <c r="M598" s="5" t="s">
-        <v>1787</v>
+        <v>7461</v>
       </c>
       <c r="N598" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O598" s="4" t="s">
-        <v>6166</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="4" t="s">
-        <v>1905</v>
+        <v>1800</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1906</v>
+        <v>1801</v>
       </c>
       <c r="C599" s="2">
-        <v>3649000</v>
+        <v>800600</v>
       </c>
       <c r="D599" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>1785</v>
@@ -44804,30 +45212,30 @@
       <c r="J599" s="7"/>
       <c r="K599" s="7"/>
       <c r="L599" s="4" t="s">
-        <v>1907</v>
+        <v>1802</v>
       </c>
       <c r="M599" s="5" t="s">
-        <v>1787</v>
+        <v>7462</v>
       </c>
       <c r="N599" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O599" s="4" t="s">
-        <v>6167</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
-        <v>1908</v>
+        <v>1803</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1909</v>
+        <v>1804</v>
       </c>
       <c r="C600" s="2">
-        <v>395500</v>
+        <v>2391400</v>
       </c>
       <c r="D600" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>1785</v>
@@ -44841,30 +45249,30 @@
       <c r="J600" s="7"/>
       <c r="K600" s="7"/>
       <c r="L600" s="4" t="s">
-        <v>1910</v>
+        <v>1805</v>
       </c>
       <c r="M600" s="5" t="s">
-        <v>1787</v>
+        <v>7463</v>
       </c>
       <c r="N600" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O600" s="4" t="s">
-        <v>6168</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="4" t="s">
-        <v>1911</v>
+        <v>1806</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1912</v>
+        <v>1807</v>
       </c>
       <c r="C601" s="2">
-        <v>480815</v>
+        <v>2029819</v>
       </c>
       <c r="D601" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>1785</v>
@@ -44878,30 +45286,30 @@
       <c r="J601" s="7"/>
       <c r="K601" s="7"/>
       <c r="L601" s="4" t="s">
-        <v>1913</v>
+        <v>1808</v>
       </c>
       <c r="M601" s="5" t="s">
-        <v>1787</v>
+        <v>7464</v>
       </c>
       <c r="N601" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O601" s="4" t="s">
-        <v>6169</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
-        <v>1914</v>
+        <v>1809</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1915</v>
+        <v>1810</v>
       </c>
       <c r="C602" s="2">
-        <v>348817</v>
+        <v>1500922</v>
       </c>
       <c r="D602" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>1785</v>
@@ -44915,30 +45323,30 @@
       <c r="J602" s="7"/>
       <c r="K602" s="7"/>
       <c r="L602" s="4" t="s">
-        <v>1916</v>
+        <v>1811</v>
       </c>
       <c r="M602" s="5" t="s">
-        <v>1787</v>
+        <v>7465</v>
       </c>
       <c r="N602" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O602" s="4" t="s">
-        <v>6170</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="4" t="s">
-        <v>1917</v>
+        <v>1812</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1918</v>
+        <v>1813</v>
       </c>
       <c r="C603" s="2">
-        <v>898220</v>
+        <v>510196</v>
       </c>
       <c r="D603" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>1785</v>
@@ -44952,30 +45360,30 @@
       <c r="J603" s="7"/>
       <c r="K603" s="7"/>
       <c r="L603" s="4" t="s">
-        <v>1919</v>
+        <v>1814</v>
       </c>
       <c r="M603" s="5" t="s">
-        <v>1787</v>
+        <v>7466</v>
       </c>
       <c r="N603" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O603" s="4" t="s">
-        <v>6171</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
-        <v>1920</v>
+        <v>1815</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1921</v>
+        <v>1816</v>
       </c>
       <c r="C604" s="2">
-        <v>1130565</v>
+        <v>696080</v>
       </c>
       <c r="D604" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>1785</v>
@@ -44989,30 +45397,30 @@
       <c r="J604" s="7"/>
       <c r="K604" s="7"/>
       <c r="L604" s="4" t="s">
-        <v>1922</v>
+        <v>1817</v>
       </c>
       <c r="M604" s="5" t="s">
-        <v>1787</v>
+        <v>7467</v>
       </c>
       <c r="N604" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O604" s="4" t="s">
-        <v>6172</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="4" t="s">
-        <v>1923</v>
+        <v>1818</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1924</v>
+        <v>1819</v>
       </c>
       <c r="C605" s="2">
-        <v>2357813</v>
+        <v>333297</v>
       </c>
       <c r="D605" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>1785</v>
@@ -45026,30 +45434,30 @@
       <c r="J605" s="7"/>
       <c r="K605" s="7"/>
       <c r="L605" s="4" t="s">
-        <v>1925</v>
+        <v>1820</v>
       </c>
       <c r="M605" s="5" t="s">
-        <v>1787</v>
+        <v>7468</v>
       </c>
       <c r="N605" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O605" s="4" t="s">
-        <v>6173</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="4" t="s">
-        <v>1926</v>
+        <v>1821</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1927</v>
+        <v>1822</v>
       </c>
       <c r="C606" s="2">
-        <v>2339100</v>
+        <v>3459269</v>
       </c>
       <c r="D606" s="2">
-        <v>412</v>
+        <v>48</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>1785</v>
@@ -45063,30 +45471,30 @@
       <c r="J606" s="7"/>
       <c r="K606" s="7"/>
       <c r="L606" s="4" t="s">
-        <v>1928</v>
+        <v>1823</v>
       </c>
       <c r="M606" s="5" t="s">
-        <v>1787</v>
+        <v>7469</v>
       </c>
       <c r="N606" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O606" s="4" t="s">
-        <v>6174</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="4" t="s">
-        <v>1929</v>
+        <v>1824</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1930</v>
+        <v>1825</v>
       </c>
       <c r="C607" s="2">
-        <v>442974125</v>
+        <v>3716570</v>
       </c>
       <c r="D607" s="2">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>1785</v>
@@ -45100,30 +45508,30 @@
       <c r="J607" s="7"/>
       <c r="K607" s="7"/>
       <c r="L607" s="4" t="s">
-        <v>1931</v>
+        <v>1826</v>
       </c>
       <c r="M607" s="5" t="s">
-        <v>1787</v>
+        <v>7470</v>
       </c>
       <c r="N607" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O607" s="4" t="s">
-        <v>6175</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="4" t="s">
-        <v>1932</v>
+        <v>1827</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1933</v>
+        <v>1828</v>
       </c>
       <c r="C608" s="2">
-        <v>401532084</v>
+        <v>435050</v>
       </c>
       <c r="D608" s="2">
-        <v>27</v>
+        <v>-6</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>1785</v>
@@ -45137,30 +45545,30 @@
       <c r="J608" s="7"/>
       <c r="K608" s="7"/>
       <c r="L608" s="4" t="s">
-        <v>1934</v>
+        <v>1829</v>
       </c>
       <c r="M608" s="5" t="s">
-        <v>1787</v>
+        <v>7471</v>
       </c>
       <c r="N608" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O608" s="4" t="s">
-        <v>6176</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="4" t="s">
-        <v>1935</v>
+        <v>1830</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1936</v>
+        <v>1831</v>
       </c>
       <c r="C609" s="2">
-        <v>7251210</v>
+        <v>285890</v>
       </c>
       <c r="D609" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>1785</v>
@@ -45174,30 +45582,30 @@
       <c r="J609" s="7"/>
       <c r="K609" s="7"/>
       <c r="L609" s="4" t="s">
-        <v>1937</v>
+        <v>1832</v>
       </c>
       <c r="M609" s="5" t="s">
-        <v>1787</v>
+        <v>7472</v>
       </c>
       <c r="N609" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O609" s="4" t="s">
-        <v>6177</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
-        <v>1938</v>
+        <v>1833</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1939</v>
+        <v>1834</v>
       </c>
       <c r="C610" s="2">
-        <v>398006484</v>
+        <v>528896</v>
       </c>
       <c r="D610" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>1785</v>
@@ -45211,30 +45619,30 @@
       <c r="J610" s="7"/>
       <c r="K610" s="7"/>
       <c r="L610" s="4" t="s">
-        <v>1940</v>
+        <v>1835</v>
       </c>
       <c r="M610" s="5" t="s">
-        <v>1787</v>
+        <v>7473</v>
       </c>
       <c r="N610" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O610" s="4" t="s">
-        <v>6178</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="4" t="s">
-        <v>1941</v>
+        <v>1836</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1942</v>
+        <v>1837</v>
       </c>
       <c r="C611" s="2">
-        <v>13644750</v>
+        <v>414876</v>
       </c>
       <c r="D611" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>1785</v>
@@ -45248,30 +45656,30 @@
       <c r="J611" s="7"/>
       <c r="K611" s="7"/>
       <c r="L611" s="4" t="s">
-        <v>1943</v>
+        <v>1838</v>
       </c>
       <c r="M611" s="5" t="s">
-        <v>1787</v>
+        <v>7474</v>
       </c>
       <c r="N611" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O611" s="4" t="s">
-        <v>6179</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
-        <v>1944</v>
+        <v>1839</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1945</v>
+        <v>1840</v>
       </c>
       <c r="C612" s="2">
-        <v>1364475</v>
+        <v>914848</v>
       </c>
       <c r="D612" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>1785</v>
@@ -45285,30 +45693,30 @@
       <c r="J612" s="7"/>
       <c r="K612" s="7"/>
       <c r="L612" s="4" t="s">
-        <v>1946</v>
+        <v>1841</v>
       </c>
       <c r="M612" s="5" t="s">
-        <v>1787</v>
+        <v>7475</v>
       </c>
       <c r="N612" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O612" s="4" t="s">
-        <v>6180</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="4" t="s">
-        <v>1947</v>
+        <v>1842</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1948</v>
+        <v>1843</v>
       </c>
       <c r="C613" s="2">
-        <v>183007285</v>
+        <v>1500922</v>
       </c>
       <c r="D613" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>1785</v>
@@ -45322,16 +45730,16 @@
       <c r="J613" s="7"/>
       <c r="K613" s="7"/>
       <c r="L613" s="4" t="s">
-        <v>1949</v>
+        <v>1844</v>
       </c>
       <c r="M613" s="5" t="s">
-        <v>1787</v>
+        <v>7476</v>
       </c>
       <c r="N613" s="16" t="s">
         <v>4876</v>
       </c>
       <c r="O613" s="4" t="s">
-        <v>6181</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.2">
@@ -64442,7 +64850,7 @@
         <v>98</v>
       </c>
       <c r="E1130" s="2" t="s">
-        <v>4871</v>
+        <v>4795</v>
       </c>
       <c r="F1130" s="7" t="s">
         <v>702</v>
@@ -64479,7 +64887,7 @@
         <v>15</v>
       </c>
       <c r="E1131" s="2" t="s">
-        <v>3264</v>
+        <v>4871</v>
       </c>
       <c r="F1131" s="7" t="s">
         <v>702</v>
@@ -64516,7 +64924,7 @@
         <v>53</v>
       </c>
       <c r="E1132" s="2" t="s">
-        <v>3264</v>
+        <v>4871</v>
       </c>
       <c r="F1132" s="7" t="s">
         <v>702</v>
@@ -64553,7 +64961,7 @@
         <v>567</v>
       </c>
       <c r="E1133" s="2" t="s">
-        <v>3264</v>
+        <v>4871</v>
       </c>
       <c r="F1133" s="7" t="s">
         <v>702</v>
@@ -64590,7 +64998,7 @@
         <v>53</v>
       </c>
       <c r="E1134" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1134" s="7" t="s">
         <v>702</v>
@@ -64627,7 +65035,7 @@
         <v>422</v>
       </c>
       <c r="E1135" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1135" s="7" t="s">
         <v>702</v>
@@ -64664,7 +65072,7 @@
         <v>0</v>
       </c>
       <c r="E1136" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1136" s="7" t="s">
         <v>702</v>
@@ -64701,7 +65109,7 @@
         <v>573</v>
       </c>
       <c r="E1137" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1137" s="7" t="s">
         <v>702</v>
@@ -64738,7 +65146,7 @@
         <v>254</v>
       </c>
       <c r="E1138" s="2" t="s">
-        <v>3264</v>
+        <v>4869</v>
       </c>
       <c r="F1138" s="7" t="s">
         <v>702</v>
@@ -64775,7 +65183,7 @@
         <v>133</v>
       </c>
       <c r="E1139" s="2" t="s">
-        <v>3264</v>
+        <v>4869</v>
       </c>
       <c r="F1139" s="7" t="s">
         <v>702</v>
@@ -64812,7 +65220,7 @@
         <v>102</v>
       </c>
       <c r="E1140" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1140" s="7" t="s">
         <v>702</v>
@@ -64849,7 +65257,7 @@
         <v>187</v>
       </c>
       <c r="E1141" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1141" s="7" t="s">
         <v>702</v>
@@ -64886,7 +65294,7 @@
         <v>0</v>
       </c>
       <c r="E1142" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1142" s="7" t="s">
         <v>702</v>
@@ -64923,7 +65331,7 @@
         <v>101</v>
       </c>
       <c r="E1143" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1143" s="7" t="s">
         <v>702</v>
@@ -64960,7 +65368,7 @@
         <v>0</v>
       </c>
       <c r="E1144" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1144" s="7" t="s">
         <v>702</v>
@@ -64997,7 +65405,7 @@
         <v>38</v>
       </c>
       <c r="E1145" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1145" s="7" t="s">
         <v>702</v>
@@ -65034,7 +65442,7 @@
         <v>120</v>
       </c>
       <c r="E1146" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1146" s="7" t="s">
         <v>702</v>
@@ -65071,7 +65479,7 @@
         <v>64</v>
       </c>
       <c r="E1147" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1147" s="7" t="s">
         <v>702</v>
@@ -65108,7 +65516,7 @@
         <v>57</v>
       </c>
       <c r="E1148" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1148" s="7" t="s">
         <v>702</v>
@@ -65145,7 +65553,7 @@
         <v>306</v>
       </c>
       <c r="E1149" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1149" s="7" t="s">
         <v>702</v>
@@ -65182,7 +65590,7 @@
         <v>0</v>
       </c>
       <c r="E1150" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1150" s="7" t="s">
         <v>702</v>
@@ -65219,7 +65627,7 @@
         <v>116</v>
       </c>
       <c r="E1151" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1151" s="7" t="s">
         <v>702</v>
@@ -65256,7 +65664,7 @@
         <v>108</v>
       </c>
       <c r="E1152" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1152" s="7" t="s">
         <v>702</v>
@@ -65293,7 +65701,7 @@
         <v>78</v>
       </c>
       <c r="E1153" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1153" s="7" t="s">
         <v>702</v>
@@ -65330,7 +65738,7 @@
         <v>122</v>
       </c>
       <c r="E1154" s="2" t="s">
-        <v>3264</v>
+        <v>4869</v>
       </c>
       <c r="F1154" s="7" t="s">
         <v>702</v>
@@ -65367,7 +65775,7 @@
         <v>114</v>
       </c>
       <c r="E1155" s="2" t="s">
-        <v>3264</v>
+        <v>4869</v>
       </c>
       <c r="F1155" s="7" t="s">
         <v>702</v>
@@ -65404,7 +65812,7 @@
         <v>1</v>
       </c>
       <c r="E1156" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1156" s="7" t="s">
         <v>702</v>
@@ -65441,7 +65849,7 @@
         <v>308</v>
       </c>
       <c r="E1157" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1157" s="7" t="s">
         <v>702</v>
@@ -65478,7 +65886,7 @@
         <v>0</v>
       </c>
       <c r="E1158" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1158" s="7" t="s">
         <v>702</v>
@@ -65515,7 +65923,7 @@
         <v>265</v>
       </c>
       <c r="E1159" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1159" s="7" t="s">
         <v>702</v>
@@ -65552,7 +65960,7 @@
         <v>118</v>
       </c>
       <c r="E1160" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1160" s="7" t="s">
         <v>702</v>
@@ -65589,7 +65997,7 @@
         <v>0</v>
       </c>
       <c r="E1161" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1161" s="7" t="s">
         <v>702</v>
@@ -65626,7 +66034,7 @@
         <v>142</v>
       </c>
       <c r="E1162" s="2" t="s">
-        <v>3264</v>
+        <v>4869</v>
       </c>
       <c r="F1162" s="7" t="s">
         <v>702</v>
@@ -65663,7 +66071,7 @@
         <v>114</v>
       </c>
       <c r="E1163" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1163" s="7" t="s">
         <v>702</v>
@@ -65700,7 +66108,7 @@
         <v>138</v>
       </c>
       <c r="E1164" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1164" s="7" t="s">
         <v>702</v>
@@ -65737,7 +66145,7 @@
         <v>180</v>
       </c>
       <c r="E1165" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1165" s="7" t="s">
         <v>702</v>
@@ -65774,7 +66182,7 @@
         <v>143</v>
       </c>
       <c r="E1166" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1166" s="7" t="s">
         <v>702</v>
@@ -65811,7 +66219,7 @@
         <v>46</v>
       </c>
       <c r="E1167" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1167" s="7" t="s">
         <v>702</v>
@@ -65848,7 +66256,7 @@
         <v>136</v>
       </c>
       <c r="E1168" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1168" s="7" t="s">
         <v>702</v>
@@ -65885,7 +66293,7 @@
         <v>34</v>
       </c>
       <c r="E1169" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1169" s="7" t="s">
         <v>702</v>
@@ -65922,7 +66330,7 @@
         <v>192</v>
       </c>
       <c r="E1170" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1170" s="7" t="s">
         <v>702</v>
@@ -65959,7 +66367,7 @@
         <v>100</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1171" s="7" t="s">
         <v>702</v>
@@ -65996,7 +66404,7 @@
         <v>46</v>
       </c>
       <c r="E1172" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1172" s="7" t="s">
         <v>702</v>
@@ -66033,7 +66441,7 @@
         <v>335</v>
       </c>
       <c r="E1173" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1173" s="7" t="s">
         <v>702</v>
@@ -66070,7 +66478,7 @@
         <v>168</v>
       </c>
       <c r="E1174" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1174" s="7" t="s">
         <v>702</v>
@@ -66107,7 +66515,7 @@
         <v>0</v>
       </c>
       <c r="E1175" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1175" s="7" t="s">
         <v>702</v>
@@ -66144,7 +66552,7 @@
         <v>63</v>
       </c>
       <c r="E1176" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1176" s="7" t="s">
         <v>702</v>
@@ -66181,7 +66589,7 @@
         <v>0</v>
       </c>
       <c r="E1177" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1177" s="7" t="s">
         <v>702</v>
@@ -66218,7 +66626,7 @@
         <v>0</v>
       </c>
       <c r="E1178" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1178" s="7" t="s">
         <v>702</v>
@@ -66255,7 +66663,7 @@
         <v>42</v>
       </c>
       <c r="E1179" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1179" s="7" t="s">
         <v>702</v>
@@ -66292,7 +66700,7 @@
         <v>7</v>
       </c>
       <c r="E1180" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1180" s="7" t="s">
         <v>702</v>
@@ -66329,7 +66737,7 @@
         <v>-1</v>
       </c>
       <c r="E1181" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1181" s="7" t="s">
         <v>702</v>
@@ -66366,7 +66774,7 @@
         <v>29</v>
       </c>
       <c r="E1182" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1182" s="7" t="s">
         <v>702</v>
@@ -66403,7 +66811,7 @@
         <v>0</v>
       </c>
       <c r="E1183" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1183" s="7" t="s">
         <v>702</v>
@@ -66440,7 +66848,7 @@
         <v>60</v>
       </c>
       <c r="E1184" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1184" s="7" t="s">
         <v>702</v>
@@ -66477,7 +66885,7 @@
         <v>0</v>
       </c>
       <c r="E1185" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1185" s="7" t="s">
         <v>702</v>
@@ -66514,7 +66922,7 @@
         <v>0</v>
       </c>
       <c r="E1186" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1186" s="7" t="s">
         <v>702</v>
@@ -66551,7 +66959,7 @@
         <v>0</v>
       </c>
       <c r="E1187" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1187" s="7" t="s">
         <v>702</v>
@@ -66588,7 +66996,7 @@
         <v>111</v>
       </c>
       <c r="E1188" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1188" s="7" t="s">
         <v>702</v>
@@ -66625,7 +67033,7 @@
         <v>40</v>
       </c>
       <c r="E1189" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1189" s="7" t="s">
         <v>702</v>
@@ -66662,7 +67070,7 @@
         <v>90</v>
       </c>
       <c r="E1190" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1190" s="7" t="s">
         <v>702</v>
@@ -66699,7 +67107,7 @@
         <v>0</v>
       </c>
       <c r="E1191" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1191" s="7" t="s">
         <v>702</v>
@@ -66810,7 +67218,7 @@
         <v>149</v>
       </c>
       <c r="E1194" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1194" s="7" t="s">
         <v>702</v>
@@ -66847,7 +67255,7 @@
         <v>135</v>
       </c>
       <c r="E1195" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1195" s="7" t="s">
         <v>702</v>
@@ -66884,7 +67292,7 @@
         <v>33</v>
       </c>
       <c r="E1196" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1196" s="7" t="s">
         <v>702</v>
@@ -66921,7 +67329,7 @@
         <v>150</v>
       </c>
       <c r="E1197" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1197" s="7" t="s">
         <v>702</v>
@@ -66958,7 +67366,7 @@
         <v>141</v>
       </c>
       <c r="E1198" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1198" s="7" t="s">
         <v>702</v>
@@ -66995,7 +67403,7 @@
         <v>0</v>
       </c>
       <c r="E1199" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1199" s="7" t="s">
         <v>702</v>
@@ -67032,7 +67440,7 @@
         <v>120</v>
       </c>
       <c r="E1200" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1200" s="7" t="s">
         <v>702</v>
@@ -67069,7 +67477,7 @@
         <v>42</v>
       </c>
       <c r="E1201" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1201" s="7" t="s">
         <v>702</v>
@@ -67106,7 +67514,7 @@
         <v>204</v>
       </c>
       <c r="E1202" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1202" s="7" t="s">
         <v>702</v>
@@ -67143,7 +67551,7 @@
         <v>249</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1203" s="7" t="s">
         <v>702</v>
@@ -67180,7 +67588,7 @@
         <v>52</v>
       </c>
       <c r="E1204" s="2" t="s">
-        <v>3264</v>
+        <v>4868</v>
       </c>
       <c r="F1204" s="7" t="s">
         <v>702</v>
@@ -67217,7 +67625,7 @@
         <v>67</v>
       </c>
       <c r="E1205" s="2" t="s">
-        <v>3264</v>
+        <v>4868</v>
       </c>
       <c r="F1205" s="7" t="s">
         <v>702</v>
@@ -67254,7 +67662,7 @@
         <v>168</v>
       </c>
       <c r="E1206" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1206" s="7" t="s">
         <v>702</v>
@@ -67291,7 +67699,7 @@
         <v>248</v>
       </c>
       <c r="E1207" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1207" s="7" t="s">
         <v>702</v>
@@ -67328,7 +67736,7 @@
         <v>6</v>
       </c>
       <c r="E1208" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1208" s="7" t="s">
         <v>702</v>
@@ -67365,7 +67773,7 @@
         <v>0</v>
       </c>
       <c r="E1209" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1209" s="7" t="s">
         <v>702</v>
@@ -67402,7 +67810,7 @@
         <v>108</v>
       </c>
       <c r="E1210" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1210" s="7" t="s">
         <v>702</v>
@@ -67439,7 +67847,7 @@
         <v>200</v>
       </c>
       <c r="E1211" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1211" s="7" t="s">
         <v>702</v>
@@ -67476,7 +67884,7 @@
         <v>2</v>
       </c>
       <c r="E1212" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1212" s="7" t="s">
         <v>702</v>
@@ -67513,7 +67921,7 @@
         <v>80</v>
       </c>
       <c r="E1213" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1213" s="7" t="s">
         <v>702</v>
@@ -67550,7 +67958,7 @@
         <v>648</v>
       </c>
       <c r="E1214" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1214" s="7" t="s">
         <v>702</v>
@@ -67587,7 +67995,7 @@
         <v>92</v>
       </c>
       <c r="E1215" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1215" s="7" t="s">
         <v>702</v>
@@ -67624,7 +68032,7 @@
         <v>2</v>
       </c>
       <c r="E1216" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1216" s="7" t="s">
         <v>702</v>
@@ -67661,7 +68069,7 @@
         <v>22</v>
       </c>
       <c r="E1217" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1217" s="7" t="s">
         <v>702</v>
@@ -67698,7 +68106,7 @@
         <v>200</v>
       </c>
       <c r="E1218" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1218" s="7" t="s">
         <v>702</v>
@@ -67735,7 +68143,7 @@
         <v>0</v>
       </c>
       <c r="E1219" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1219" s="7" t="s">
         <v>702</v>
@@ -67772,7 +68180,7 @@
         <v>540</v>
       </c>
       <c r="E1220" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1220" s="7" t="s">
         <v>702</v>
@@ -67809,7 +68217,7 @@
         <v>0</v>
       </c>
       <c r="E1221" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1221" s="7" t="s">
         <v>702</v>
@@ -67846,7 +68254,7 @@
         <v>83</v>
       </c>
       <c r="E1222" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1222" s="7" t="s">
         <v>702</v>
@@ -67883,7 +68291,7 @@
         <v>149</v>
       </c>
       <c r="E1223" s="2" t="s">
-        <v>3264</v>
+        <v>4867</v>
       </c>
       <c r="F1223" s="7" t="s">
         <v>702</v>
@@ -67920,7 +68328,7 @@
         <v>0</v>
       </c>
       <c r="E1224" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1224" s="7" t="s">
         <v>702</v>
@@ -67957,7 +68365,7 @@
         <v>20</v>
       </c>
       <c r="E1225" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1225" s="7" t="s">
         <v>702</v>
@@ -67993,8 +68401,8 @@
       <c r="D1226" s="2">
         <v>205</v>
       </c>
-      <c r="E1226" s="2" t="s">
-        <v>3264</v>
+      <c r="E1226" s="13" t="s">
+        <v>4871</v>
       </c>
       <c r="F1226" s="7" t="s">
         <v>702</v>
@@ -68030,8 +68438,8 @@
       <c r="D1227" s="2">
         <v>133</v>
       </c>
-      <c r="E1227" s="2" t="s">
-        <v>3264</v>
+      <c r="E1227" s="13" t="s">
+        <v>4871</v>
       </c>
       <c r="F1227" s="7" t="s">
         <v>702</v>
@@ -68067,8 +68475,8 @@
       <c r="D1228" s="2">
         <v>302</v>
       </c>
-      <c r="E1228" s="2" t="s">
-        <v>3264</v>
+      <c r="E1228" s="13" t="s">
+        <v>4871</v>
       </c>
       <c r="F1228" s="7" t="s">
         <v>702</v>
@@ -68105,7 +68513,7 @@
         <v>37</v>
       </c>
       <c r="E1229" s="2" t="s">
-        <v>3264</v>
+        <v>4796</v>
       </c>
       <c r="F1229" s="7" t="s">
         <v>702</v>
@@ -68141,8 +68549,8 @@
       <c r="D1230" s="2">
         <v>91</v>
       </c>
-      <c r="E1230" s="2" t="s">
-        <v>3264</v>
+      <c r="E1230" s="13" t="s">
+        <v>4871</v>
       </c>
       <c r="F1230" s="7" t="s">
         <v>702</v>
@@ -68179,7 +68587,7 @@
         <v>148</v>
       </c>
       <c r="E1231" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1231" s="7" t="s">
         <v>702</v>
@@ -68216,7 +68624,7 @@
         <v>318</v>
       </c>
       <c r="E1232" s="2" t="s">
-        <v>3264</v>
+        <v>4870</v>
       </c>
       <c r="F1232" s="7" t="s">
         <v>702</v>
@@ -68253,7 +68661,7 @@
         <v>141</v>
       </c>
       <c r="E1233" s="2" t="s">
-        <v>3264</v>
+        <v>4794</v>
       </c>
       <c r="F1233" s="7" t="s">
         <v>702</v>
@@ -68290,7 +68698,7 @@
         <v>0</v>
       </c>
       <c r="E1234" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1234" s="7" t="s">
         <v>702</v>
@@ -68327,7 +68735,7 @@
         <v>48</v>
       </c>
       <c r="E1235" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1235" s="7" t="s">
         <v>702</v>
@@ -68364,7 +68772,7 @@
         <v>78</v>
       </c>
       <c r="E1236" s="2" t="s">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="F1236" s="7" t="s">
         <v>702</v>
@@ -71386,16 +71794,16 @@
     </row>
     <row r="1318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1318" s="4" t="s">
-        <v>4136</v>
+        <v>4227</v>
       </c>
       <c r="B1318" s="2" t="s">
-        <v>4137</v>
+        <v>4228</v>
       </c>
       <c r="C1318" s="2">
-        <v>600000</v>
+        <v>1098814</v>
       </c>
       <c r="D1318" s="2">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="E1318" s="2" t="s">
         <v>4138</v>
@@ -71409,7 +71817,7 @@
       <c r="J1318" s="7"/>
       <c r="K1318" s="7"/>
       <c r="L1318" s="4" t="s">
-        <v>4139</v>
+        <v>4229</v>
       </c>
       <c r="M1318" s="5" t="s">
         <v>22</v>
@@ -71418,21 +71826,21 @@
         <v>4876</v>
       </c>
       <c r="O1318" s="4" t="s">
-        <v>6883</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="1319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1319" s="4" t="s">
-        <v>4140</v>
+        <v>4182</v>
       </c>
       <c r="B1319" s="2" t="s">
-        <v>4141</v>
+        <v>4183</v>
       </c>
       <c r="C1319" s="2">
-        <v>504347</v>
+        <v>1225296</v>
       </c>
       <c r="D1319" s="2">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="E1319" s="2" t="s">
         <v>4138</v>
@@ -71446,7 +71854,7 @@
       <c r="J1319" s="7"/>
       <c r="K1319" s="7"/>
       <c r="L1319" s="4" t="s">
-        <v>4142</v>
+        <v>4184</v>
       </c>
       <c r="M1319" s="5" t="s">
         <v>22</v>
@@ -71455,21 +71863,21 @@
         <v>4876</v>
       </c>
       <c r="O1319" s="4" t="s">
-        <v>6884</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="1320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1320" s="4" t="s">
-        <v>4143</v>
+        <v>4236</v>
       </c>
       <c r="B1320" s="2" t="s">
-        <v>4144</v>
+        <v>4237</v>
       </c>
       <c r="C1320" s="2">
-        <v>504347</v>
+        <v>1067194</v>
       </c>
       <c r="D1320" s="2">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="E1320" s="2" t="s">
         <v>4138</v>
@@ -71483,7 +71891,7 @@
       <c r="J1320" s="7"/>
       <c r="K1320" s="7"/>
       <c r="L1320" s="4" t="s">
-        <v>4145</v>
+        <v>4238</v>
       </c>
       <c r="M1320" s="5" t="s">
         <v>22</v>
@@ -71492,21 +71900,21 @@
         <v>4876</v>
       </c>
       <c r="O1320" s="4" t="s">
-        <v>6885</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="1321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1321" s="4" t="s">
-        <v>4146</v>
+        <v>4239</v>
       </c>
       <c r="B1321" s="2" t="s">
-        <v>4147</v>
+        <v>4240</v>
       </c>
       <c r="C1321" s="2">
-        <v>334945</v>
+        <v>1067194</v>
       </c>
       <c r="D1321" s="2">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="E1321" s="2" t="s">
         <v>4138</v>
@@ -71520,7 +71928,7 @@
       <c r="J1321" s="7"/>
       <c r="K1321" s="7"/>
       <c r="L1321" s="4" t="s">
-        <v>4148</v>
+        <v>4241</v>
       </c>
       <c r="M1321" s="5" t="s">
         <v>22</v>
@@ -71529,21 +71937,21 @@
         <v>4876</v>
       </c>
       <c r="O1321" s="4" t="s">
-        <v>6886</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="1322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1322" s="4" t="s">
-        <v>4149</v>
+        <v>4191</v>
       </c>
       <c r="B1322" s="2" t="s">
-        <v>4150</v>
+        <v>4192</v>
       </c>
       <c r="C1322" s="2">
-        <v>0</v>
+        <v>1391314</v>
       </c>
       <c r="D1322" s="2">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="E1322" s="2" t="s">
         <v>4138</v>
@@ -71557,7 +71965,7 @@
       <c r="J1322" s="7"/>
       <c r="K1322" s="7"/>
       <c r="L1322" s="4" t="s">
-        <v>4151</v>
+        <v>4193</v>
       </c>
       <c r="M1322" s="5" t="s">
         <v>22</v>
@@ -71566,21 +71974,21 @@
         <v>4876</v>
       </c>
       <c r="O1322" s="4" t="s">
-        <v>6887</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="1323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1323" s="4" t="s">
-        <v>4152</v>
+        <v>4194</v>
       </c>
       <c r="B1323" s="2" t="s">
-        <v>4153</v>
+        <v>4195</v>
       </c>
       <c r="C1323" s="2">
-        <v>412445</v>
+        <v>1343874</v>
       </c>
       <c r="D1323" s="2">
-        <v>770</v>
+        <v>-126</v>
       </c>
       <c r="E1323" s="2" t="s">
         <v>4138</v>
@@ -71594,7 +72002,7 @@
       <c r="J1323" s="7"/>
       <c r="K1323" s="7"/>
       <c r="L1323" s="4" t="s">
-        <v>4154</v>
+        <v>4196</v>
       </c>
       <c r="M1323" s="5" t="s">
         <v>22</v>
@@ -71603,21 +72011,21 @@
         <v>4876</v>
       </c>
       <c r="O1323" s="4" t="s">
-        <v>6888</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="1324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1324" s="4" t="s">
-        <v>4155</v>
+        <v>4197</v>
       </c>
       <c r="B1324" s="2" t="s">
-        <v>4156</v>
+        <v>4198</v>
       </c>
       <c r="C1324" s="2">
-        <v>518548</v>
+        <v>1343784</v>
       </c>
       <c r="D1324" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E1324" s="2" t="s">
         <v>4138</v>
@@ -71631,7 +72039,7 @@
       <c r="J1324" s="7"/>
       <c r="K1324" s="7"/>
       <c r="L1324" s="4" t="s">
-        <v>4157</v>
+        <v>4199</v>
       </c>
       <c r="M1324" s="5" t="s">
         <v>22</v>
@@ -71640,21 +72048,21 @@
         <v>4876</v>
       </c>
       <c r="O1324" s="4" t="s">
-        <v>6889</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="1325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1325" s="4" t="s">
-        <v>4158</v>
+        <v>4200</v>
       </c>
       <c r="B1325" s="2" t="s">
-        <v>4159</v>
+        <v>4201</v>
       </c>
       <c r="C1325" s="2">
-        <v>518548</v>
+        <v>1083004</v>
       </c>
       <c r="D1325" s="2">
-        <v>0</v>
+        <v>2739</v>
       </c>
       <c r="E1325" s="2" t="s">
         <v>4138</v>
@@ -71668,7 +72076,7 @@
       <c r="J1325" s="7"/>
       <c r="K1325" s="7"/>
       <c r="L1325" s="4" t="s">
-        <v>4160</v>
+        <v>4202</v>
       </c>
       <c r="M1325" s="5" t="s">
         <v>22</v>
@@ -71677,21 +72085,21 @@
         <v>4876</v>
       </c>
       <c r="O1325" s="4" t="s">
-        <v>6890</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="1326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1326" s="4" t="s">
-        <v>4161</v>
+        <v>4203</v>
       </c>
       <c r="B1326" s="2" t="s">
-        <v>4162</v>
+        <v>4204</v>
       </c>
       <c r="C1326" s="2">
-        <v>258000</v>
+        <v>727273</v>
       </c>
       <c r="D1326" s="2">
-        <v>3439</v>
+        <v>2666</v>
       </c>
       <c r="E1326" s="2" t="s">
         <v>4138</v>
@@ -71705,7 +72113,7 @@
       <c r="J1326" s="7"/>
       <c r="K1326" s="7"/>
       <c r="L1326" s="4" t="s">
-        <v>4163</v>
+        <v>4205</v>
       </c>
       <c r="M1326" s="5" t="s">
         <v>22</v>
@@ -71714,21 +72122,21 @@
         <v>4876</v>
       </c>
       <c r="O1326" s="4" t="s">
-        <v>6891</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="1327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1327" s="4" t="s">
-        <v>4164</v>
+        <v>4206</v>
       </c>
       <c r="B1327" s="2" t="s">
-        <v>4165</v>
+        <v>4207</v>
       </c>
       <c r="C1327" s="2">
-        <v>1333043</v>
+        <v>727273</v>
       </c>
       <c r="D1327" s="2">
-        <v>3610</v>
+        <v>30264</v>
       </c>
       <c r="E1327" s="2" t="s">
         <v>4138</v>
@@ -71742,7 +72150,7 @@
       <c r="J1327" s="7"/>
       <c r="K1327" s="7"/>
       <c r="L1327" s="4" t="s">
-        <v>4166</v>
+        <v>4208</v>
       </c>
       <c r="M1327" s="5" t="s">
         <v>22</v>
@@ -71751,21 +72159,21 @@
         <v>4876</v>
       </c>
       <c r="O1327" s="4" t="s">
-        <v>6892</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="1328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1328" s="4" t="s">
-        <v>4167</v>
+        <v>4209</v>
       </c>
       <c r="B1328" s="2" t="s">
-        <v>4168</v>
+        <v>4210</v>
       </c>
       <c r="C1328" s="2">
-        <v>1373912</v>
+        <v>727273</v>
       </c>
       <c r="D1328" s="2">
-        <v>3408</v>
+        <v>7368</v>
       </c>
       <c r="E1328" s="2" t="s">
         <v>4138</v>
@@ -71779,7 +72187,7 @@
       <c r="J1328" s="7"/>
       <c r="K1328" s="7"/>
       <c r="L1328" s="4" t="s">
-        <v>4169</v>
+        <v>4211</v>
       </c>
       <c r="M1328" s="5" t="s">
         <v>22</v>
@@ -71788,21 +72196,21 @@
         <v>4876</v>
       </c>
       <c r="O1328" s="4" t="s">
-        <v>6893</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="1329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1329" s="4" t="s">
-        <v>4170</v>
+        <v>4212</v>
       </c>
       <c r="B1329" s="2" t="s">
-        <v>4171</v>
+        <v>4213</v>
       </c>
       <c r="C1329" s="2">
-        <v>1373912</v>
+        <v>727273</v>
       </c>
       <c r="D1329" s="2">
-        <v>576</v>
+        <v>5094</v>
       </c>
       <c r="E1329" s="2" t="s">
         <v>4138</v>
@@ -71816,7 +72224,7 @@
       <c r="J1329" s="7"/>
       <c r="K1329" s="7"/>
       <c r="L1329" s="4" t="s">
-        <v>4172</v>
+        <v>4214</v>
       </c>
       <c r="M1329" s="5" t="s">
         <v>22</v>
@@ -71825,21 +72233,21 @@
         <v>4876</v>
       </c>
       <c r="O1329" s="4" t="s">
-        <v>6894</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="1330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1330" s="4" t="s">
-        <v>4173</v>
+        <v>4215</v>
       </c>
       <c r="B1330" s="2" t="s">
-        <v>4174</v>
+        <v>4216</v>
       </c>
       <c r="C1330" s="2">
-        <v>1836087</v>
+        <v>727273</v>
       </c>
       <c r="D1330" s="2">
-        <v>1366</v>
+        <v>0</v>
       </c>
       <c r="E1330" s="2" t="s">
         <v>4138</v>
@@ -71853,7 +72261,7 @@
       <c r="J1330" s="7"/>
       <c r="K1330" s="7"/>
       <c r="L1330" s="4" t="s">
-        <v>4175</v>
+        <v>4217</v>
       </c>
       <c r="M1330" s="5" t="s">
         <v>22</v>
@@ -71862,21 +72270,21 @@
         <v>4876</v>
       </c>
       <c r="O1330" s="4" t="s">
-        <v>6895</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="1331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1331" s="4" t="s">
-        <v>4176</v>
+        <v>4254</v>
       </c>
       <c r="B1331" s="2" t="s">
-        <v>4177</v>
+        <v>4255</v>
       </c>
       <c r="C1331" s="2">
-        <v>2293862</v>
+        <v>1695414</v>
       </c>
       <c r="D1331" s="2">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="E1331" s="2" t="s">
         <v>4138</v>
@@ -71890,7 +72298,7 @@
       <c r="J1331" s="7"/>
       <c r="K1331" s="7"/>
       <c r="L1331" s="4" t="s">
-        <v>4178</v>
+        <v>4256</v>
       </c>
       <c r="M1331" s="5" t="s">
         <v>22</v>
@@ -71899,21 +72307,21 @@
         <v>4876</v>
       </c>
       <c r="O1331" s="4" t="s">
-        <v>6896</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="1332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1332" s="4" t="s">
-        <v>4179</v>
+        <v>4257</v>
       </c>
       <c r="B1332" s="2" t="s">
-        <v>4180</v>
+        <v>4258</v>
       </c>
       <c r="C1332" s="2">
-        <v>766798</v>
+        <v>2055336</v>
       </c>
       <c r="D1332" s="2">
-        <v>1096</v>
+        <v>6</v>
       </c>
       <c r="E1332" s="2" t="s">
         <v>4138</v>
@@ -71927,7 +72335,7 @@
       <c r="J1332" s="7"/>
       <c r="K1332" s="7"/>
       <c r="L1332" s="4" t="s">
-        <v>4181</v>
+        <v>4259</v>
       </c>
       <c r="M1332" s="5" t="s">
         <v>22</v>
@@ -71936,21 +72344,21 @@
         <v>4876</v>
       </c>
       <c r="O1332" s="4" t="s">
-        <v>6897</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="1333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1333" s="4" t="s">
-        <v>4182</v>
+        <v>4260</v>
       </c>
       <c r="B1333" s="2" t="s">
-        <v>4183</v>
+        <v>4261</v>
       </c>
       <c r="C1333" s="2">
-        <v>1225296</v>
+        <v>2055336</v>
       </c>
       <c r="D1333" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1333" s="2" t="s">
         <v>4138</v>
@@ -71964,7 +72372,7 @@
       <c r="J1333" s="7"/>
       <c r="K1333" s="7"/>
       <c r="L1333" s="4" t="s">
-        <v>4184</v>
+        <v>4262</v>
       </c>
       <c r="M1333" s="5" t="s">
         <v>22</v>
@@ -71973,21 +72381,21 @@
         <v>4876</v>
       </c>
       <c r="O1333" s="4" t="s">
-        <v>6898</v>
+        <v>6924</v>
       </c>
     </row>
     <row r="1334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1334" s="4" t="s">
-        <v>4185</v>
+        <v>4248</v>
       </c>
       <c r="B1334" s="2" t="s">
-        <v>4186</v>
+        <v>4249</v>
       </c>
       <c r="C1334" s="2">
-        <v>1098814</v>
+        <v>800000</v>
       </c>
       <c r="D1334" s="2">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="E1334" s="2" t="s">
         <v>4138</v>
@@ -72001,7 +72409,7 @@
       <c r="J1334" s="7"/>
       <c r="K1334" s="7"/>
       <c r="L1334" s="4" t="s">
-        <v>4187</v>
+        <v>4250</v>
       </c>
       <c r="M1334" s="5" t="s">
         <v>22</v>
@@ -72010,21 +72418,21 @@
         <v>4876</v>
       </c>
       <c r="O1334" s="4" t="s">
-        <v>6899</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="1335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1335" s="4" t="s">
-        <v>4188</v>
+        <v>4275</v>
       </c>
       <c r="B1335" s="2" t="s">
-        <v>4189</v>
+        <v>4276</v>
       </c>
       <c r="C1335" s="2">
-        <v>1098814</v>
+        <v>1106719</v>
       </c>
       <c r="D1335" s="2">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E1335" s="2" t="s">
         <v>4138</v>
@@ -72038,7 +72446,7 @@
       <c r="J1335" s="7"/>
       <c r="K1335" s="7"/>
       <c r="L1335" s="4" t="s">
-        <v>4190</v>
+        <v>4277</v>
       </c>
       <c r="M1335" s="5" t="s">
         <v>22</v>
@@ -72047,21 +72455,21 @@
         <v>4876</v>
       </c>
       <c r="O1335" s="4" t="s">
-        <v>6900</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="1336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1336" s="4" t="s">
-        <v>4191</v>
+        <v>4266</v>
       </c>
       <c r="B1336" s="2" t="s">
-        <v>4192</v>
+        <v>4267</v>
       </c>
       <c r="C1336" s="2">
-        <v>1391314</v>
+        <v>2490119</v>
       </c>
       <c r="D1336" s="2">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="E1336" s="2" t="s">
         <v>4138</v>
@@ -72075,7 +72483,7 @@
       <c r="J1336" s="7"/>
       <c r="K1336" s="7"/>
       <c r="L1336" s="4" t="s">
-        <v>4193</v>
+        <v>4268</v>
       </c>
       <c r="M1336" s="5" t="s">
         <v>22</v>
@@ -72084,21 +72492,21 @@
         <v>4876</v>
       </c>
       <c r="O1336" s="4" t="s">
-        <v>6901</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="1337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1337" s="4" t="s">
-        <v>4194</v>
+        <v>4281</v>
       </c>
       <c r="B1337" s="2" t="s">
-        <v>4195</v>
+        <v>4282</v>
       </c>
       <c r="C1337" s="2">
-        <v>1343874</v>
+        <v>2569170</v>
       </c>
       <c r="D1337" s="2">
-        <v>-126</v>
+        <v>14</v>
       </c>
       <c r="E1337" s="2" t="s">
         <v>4138</v>
@@ -72112,7 +72520,7 @@
       <c r="J1337" s="7"/>
       <c r="K1337" s="7"/>
       <c r="L1337" s="4" t="s">
-        <v>4196</v>
+        <v>4283</v>
       </c>
       <c r="M1337" s="5" t="s">
         <v>22</v>
@@ -72121,21 +72529,21 @@
         <v>4876</v>
       </c>
       <c r="O1337" s="4" t="s">
-        <v>6902</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="1338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1338" s="4" t="s">
-        <v>4197</v>
+        <v>4284</v>
       </c>
       <c r="B1338" s="2" t="s">
-        <v>4198</v>
+        <v>4285</v>
       </c>
       <c r="C1338" s="2">
-        <v>1343784</v>
+        <v>1067194</v>
       </c>
       <c r="D1338" s="2">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E1338" s="2" t="s">
         <v>4138</v>
@@ -72149,7 +72557,7 @@
       <c r="J1338" s="7"/>
       <c r="K1338" s="7"/>
       <c r="L1338" s="4" t="s">
-        <v>4199</v>
+        <v>4286</v>
       </c>
       <c r="M1338" s="5" t="s">
         <v>22</v>
@@ -72158,21 +72566,21 @@
         <v>4876</v>
       </c>
       <c r="O1338" s="4" t="s">
-        <v>6903</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="1339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1339" s="4" t="s">
-        <v>4200</v>
+        <v>4179</v>
       </c>
       <c r="B1339" s="2" t="s">
-        <v>4201</v>
+        <v>4180</v>
       </c>
       <c r="C1339" s="2">
-        <v>1083004</v>
+        <v>766798</v>
       </c>
       <c r="D1339" s="2">
-        <v>2739</v>
+        <v>1096</v>
       </c>
       <c r="E1339" s="2" t="s">
         <v>4138</v>
@@ -72186,7 +72594,7 @@
       <c r="J1339" s="7"/>
       <c r="K1339" s="7"/>
       <c r="L1339" s="4" t="s">
-        <v>4202</v>
+        <v>4181</v>
       </c>
       <c r="M1339" s="5" t="s">
         <v>22</v>
@@ -72195,21 +72603,21 @@
         <v>4876</v>
       </c>
       <c r="O1339" s="4" t="s">
-        <v>6904</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="1340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1340" s="4" t="s">
-        <v>4203</v>
+        <v>4185</v>
       </c>
       <c r="B1340" s="2" t="s">
-        <v>4204</v>
+        <v>4186</v>
       </c>
       <c r="C1340" s="2">
-        <v>727273</v>
+        <v>1098814</v>
       </c>
       <c r="D1340" s="2">
-        <v>2666</v>
+        <v>802</v>
       </c>
       <c r="E1340" s="2" t="s">
         <v>4138</v>
@@ -72223,7 +72631,7 @@
       <c r="J1340" s="7"/>
       <c r="K1340" s="7"/>
       <c r="L1340" s="4" t="s">
-        <v>4205</v>
+        <v>4187</v>
       </c>
       <c r="M1340" s="5" t="s">
         <v>22</v>
@@ -72232,21 +72640,21 @@
         <v>4876</v>
       </c>
       <c r="O1340" s="4" t="s">
-        <v>6905</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="1341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1341" s="4" t="s">
-        <v>4206</v>
+        <v>4188</v>
       </c>
       <c r="B1341" s="2" t="s">
-        <v>4207</v>
+        <v>4189</v>
       </c>
       <c r="C1341" s="2">
-        <v>727273</v>
+        <v>1098814</v>
       </c>
       <c r="D1341" s="2">
-        <v>30264</v>
+        <v>634</v>
       </c>
       <c r="E1341" s="2" t="s">
         <v>4138</v>
@@ -72260,7 +72668,7 @@
       <c r="J1341" s="7"/>
       <c r="K1341" s="7"/>
       <c r="L1341" s="4" t="s">
-        <v>4208</v>
+        <v>4190</v>
       </c>
       <c r="M1341" s="5" t="s">
         <v>22</v>
@@ -72269,21 +72677,21 @@
         <v>4876</v>
       </c>
       <c r="O1341" s="4" t="s">
-        <v>6906</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="1342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1342" s="4" t="s">
-        <v>4209</v>
+        <v>4218</v>
       </c>
       <c r="B1342" s="2" t="s">
-        <v>4210</v>
+        <v>4219</v>
       </c>
       <c r="C1342" s="2">
-        <v>727273</v>
+        <v>956522</v>
       </c>
       <c r="D1342" s="2">
-        <v>7368</v>
+        <v>50250</v>
       </c>
       <c r="E1342" s="2" t="s">
         <v>4138</v>
@@ -72297,7 +72705,7 @@
       <c r="J1342" s="7"/>
       <c r="K1342" s="7"/>
       <c r="L1342" s="4" t="s">
-        <v>4211</v>
+        <v>4220</v>
       </c>
       <c r="M1342" s="5" t="s">
         <v>22</v>
@@ -72306,21 +72714,21 @@
         <v>4876</v>
       </c>
       <c r="O1342" s="4" t="s">
-        <v>6907</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="1343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1343" s="4" t="s">
-        <v>4212</v>
+        <v>4221</v>
       </c>
       <c r="B1343" s="2" t="s">
-        <v>4213</v>
+        <v>4222</v>
       </c>
       <c r="C1343" s="2">
-        <v>727273</v>
+        <v>956522</v>
       </c>
       <c r="D1343" s="2">
-        <v>5094</v>
+        <v>3</v>
       </c>
       <c r="E1343" s="2" t="s">
         <v>4138</v>
@@ -72334,7 +72742,7 @@
       <c r="J1343" s="7"/>
       <c r="K1343" s="7"/>
       <c r="L1343" s="4" t="s">
-        <v>4214</v>
+        <v>4223</v>
       </c>
       <c r="M1343" s="5" t="s">
         <v>22</v>
@@ -72343,21 +72751,21 @@
         <v>4876</v>
       </c>
       <c r="O1343" s="4" t="s">
-        <v>6908</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="1344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1344" s="4" t="s">
-        <v>4215</v>
+        <v>4224</v>
       </c>
       <c r="B1344" s="2" t="s">
-        <v>4216</v>
+        <v>4225</v>
       </c>
       <c r="C1344" s="2">
-        <v>727273</v>
+        <v>956522</v>
       </c>
       <c r="D1344" s="2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E1344" s="2" t="s">
         <v>4138</v>
@@ -72371,7 +72779,7 @@
       <c r="J1344" s="7"/>
       <c r="K1344" s="7"/>
       <c r="L1344" s="4" t="s">
-        <v>4217</v>
+        <v>4226</v>
       </c>
       <c r="M1344" s="5" t="s">
         <v>22</v>
@@ -72380,21 +72788,21 @@
         <v>4876</v>
       </c>
       <c r="O1344" s="4" t="s">
-        <v>6909</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="1345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1345" s="4" t="s">
-        <v>4218</v>
+        <v>4230</v>
       </c>
       <c r="B1345" s="2" t="s">
-        <v>4219</v>
+        <v>4231</v>
       </c>
       <c r="C1345" s="2">
-        <v>956522</v>
+        <v>703557</v>
       </c>
       <c r="D1345" s="2">
-        <v>50250</v>
+        <v>0</v>
       </c>
       <c r="E1345" s="2" t="s">
         <v>4138</v>
@@ -72408,7 +72816,7 @@
       <c r="J1345" s="7"/>
       <c r="K1345" s="7"/>
       <c r="L1345" s="4" t="s">
-        <v>4220</v>
+        <v>4232</v>
       </c>
       <c r="M1345" s="5" t="s">
         <v>22</v>
@@ -72417,21 +72825,21 @@
         <v>4876</v>
       </c>
       <c r="O1345" s="4" t="s">
-        <v>6910</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1346" s="4" t="s">
-        <v>4221</v>
+        <v>4233</v>
       </c>
       <c r="B1346" s="2" t="s">
-        <v>4222</v>
+        <v>4234</v>
       </c>
       <c r="C1346" s="2">
-        <v>956522</v>
+        <v>1146245</v>
       </c>
       <c r="D1346" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1346" s="2" t="s">
         <v>4138</v>
@@ -72445,7 +72853,7 @@
       <c r="J1346" s="7"/>
       <c r="K1346" s="7"/>
       <c r="L1346" s="4" t="s">
-        <v>4223</v>
+        <v>4235</v>
       </c>
       <c r="M1346" s="5" t="s">
         <v>22</v>
@@ -72454,21 +72862,21 @@
         <v>4876</v>
       </c>
       <c r="O1346" s="4" t="s">
-        <v>6911</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="1347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1347" s="4" t="s">
-        <v>4224</v>
+        <v>4242</v>
       </c>
       <c r="B1347" s="2" t="s">
-        <v>4225</v>
+        <v>4243</v>
       </c>
       <c r="C1347" s="2">
-        <v>956522</v>
+        <v>703557</v>
       </c>
       <c r="D1347" s="2">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E1347" s="2" t="s">
         <v>4138</v>
@@ -72482,7 +72890,7 @@
       <c r="J1347" s="7"/>
       <c r="K1347" s="7"/>
       <c r="L1347" s="4" t="s">
-        <v>4226</v>
+        <v>4244</v>
       </c>
       <c r="M1347" s="5" t="s">
         <v>22</v>
@@ -72491,18 +72899,18 @@
         <v>4876</v>
       </c>
       <c r="O1347" s="4" t="s">
-        <v>6912</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="1348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1348" s="4" t="s">
-        <v>4227</v>
+        <v>4245</v>
       </c>
       <c r="B1348" s="2" t="s">
-        <v>4228</v>
+        <v>4246</v>
       </c>
       <c r="C1348" s="2">
-        <v>1098814</v>
+        <v>766798</v>
       </c>
       <c r="D1348" s="2">
         <v>0</v>
@@ -72519,7 +72927,7 @@
       <c r="J1348" s="7"/>
       <c r="K1348" s="7"/>
       <c r="L1348" s="4" t="s">
-        <v>4229</v>
+        <v>4247</v>
       </c>
       <c r="M1348" s="5" t="s">
         <v>22</v>
@@ -72528,18 +72936,18 @@
         <v>4876</v>
       </c>
       <c r="O1348" s="4" t="s">
-        <v>6913</v>
+        <v>6919</v>
       </c>
     </row>
     <row r="1349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1349" s="4" t="s">
-        <v>4230</v>
+        <v>4251</v>
       </c>
       <c r="B1349" s="2" t="s">
-        <v>4231</v>
+        <v>4252</v>
       </c>
       <c r="C1349" s="2">
-        <v>703557</v>
+        <v>766798</v>
       </c>
       <c r="D1349" s="2">
         <v>0</v>
@@ -72556,7 +72964,7 @@
       <c r="J1349" s="7"/>
       <c r="K1349" s="7"/>
       <c r="L1349" s="4" t="s">
-        <v>4232</v>
+        <v>4253</v>
       </c>
       <c r="M1349" s="5" t="s">
         <v>22</v>
@@ -72565,15 +72973,15 @@
         <v>4876</v>
       </c>
       <c r="O1349" s="4" t="s">
-        <v>6914</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="1350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1350" s="4" t="s">
-        <v>4233</v>
+        <v>4263</v>
       </c>
       <c r="B1350" s="2" t="s">
-        <v>4234</v>
+        <v>4264</v>
       </c>
       <c r="C1350" s="2">
         <v>1146245</v>
@@ -72593,7 +73001,7 @@
       <c r="J1350" s="7"/>
       <c r="K1350" s="7"/>
       <c r="L1350" s="4" t="s">
-        <v>4235</v>
+        <v>4265</v>
       </c>
       <c r="M1350" s="5" t="s">
         <v>22</v>
@@ -72602,18 +73010,18 @@
         <v>4876</v>
       </c>
       <c r="O1350" s="4" t="s">
-        <v>6915</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="1351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1351" s="4" t="s">
-        <v>4236</v>
+        <v>4269</v>
       </c>
       <c r="B1351" s="2" t="s">
-        <v>4237</v>
+        <v>4270</v>
       </c>
       <c r="C1351" s="2">
-        <v>1067194</v>
+        <v>711462</v>
       </c>
       <c r="D1351" s="2">
         <v>0</v>
@@ -72630,7 +73038,7 @@
       <c r="J1351" s="7"/>
       <c r="K1351" s="7"/>
       <c r="L1351" s="4" t="s">
-        <v>4238</v>
+        <v>4271</v>
       </c>
       <c r="M1351" s="5" t="s">
         <v>22</v>
@@ -72639,18 +73047,18 @@
         <v>4876</v>
       </c>
       <c r="O1351" s="4" t="s">
-        <v>6916</v>
+        <v>6927</v>
       </c>
     </row>
     <row r="1352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1352" s="4" t="s">
-        <v>4239</v>
+        <v>4272</v>
       </c>
       <c r="B1352" s="2" t="s">
-        <v>4240</v>
+        <v>4273</v>
       </c>
       <c r="C1352" s="2">
-        <v>1067194</v>
+        <v>711462</v>
       </c>
       <c r="D1352" s="2">
         <v>0</v>
@@ -72667,7 +73075,7 @@
       <c r="J1352" s="7"/>
       <c r="K1352" s="7"/>
       <c r="L1352" s="4" t="s">
-        <v>4241</v>
+        <v>4274</v>
       </c>
       <c r="M1352" s="5" t="s">
         <v>22</v>
@@ -72676,21 +73084,21 @@
         <v>4876</v>
       </c>
       <c r="O1352" s="4" t="s">
-        <v>6917</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="1353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1353" s="4" t="s">
-        <v>4242</v>
+        <v>4278</v>
       </c>
       <c r="B1353" s="2" t="s">
-        <v>4243</v>
+        <v>4279</v>
       </c>
       <c r="C1353" s="2">
-        <v>703557</v>
+        <v>790514</v>
       </c>
       <c r="D1353" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1353" s="2" t="s">
         <v>4138</v>
@@ -72704,7 +73112,7 @@
       <c r="J1353" s="7"/>
       <c r="K1353" s="7"/>
       <c r="L1353" s="4" t="s">
-        <v>4244</v>
+        <v>4280</v>
       </c>
       <c r="M1353" s="5" t="s">
         <v>22</v>
@@ -72713,18 +73121,18 @@
         <v>4876</v>
       </c>
       <c r="O1353" s="4" t="s">
-        <v>6918</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="1354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1354" s="4" t="s">
-        <v>4245</v>
+        <v>4287</v>
       </c>
       <c r="B1354" s="2" t="s">
-        <v>4246</v>
+        <v>4288</v>
       </c>
       <c r="C1354" s="2">
-        <v>766798</v>
+        <v>1098814</v>
       </c>
       <c r="D1354" s="2">
         <v>0</v>
@@ -72741,7 +73149,7 @@
       <c r="J1354" s="7"/>
       <c r="K1354" s="7"/>
       <c r="L1354" s="4" t="s">
-        <v>4247</v>
+        <v>4289</v>
       </c>
       <c r="M1354" s="5" t="s">
         <v>22</v>
@@ -72750,21 +73158,21 @@
         <v>4876</v>
       </c>
       <c r="O1354" s="4" t="s">
-        <v>6919</v>
+        <v>6933</v>
       </c>
     </row>
     <row r="1355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1355" s="4" t="s">
-        <v>4248</v>
+        <v>4290</v>
       </c>
       <c r="B1355" s="2" t="s">
-        <v>4249</v>
+        <v>4291</v>
       </c>
       <c r="C1355" s="2">
-        <v>800000</v>
+        <v>766798</v>
       </c>
       <c r="D1355" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E1355" s="2" t="s">
         <v>4138</v>
@@ -72778,7 +73186,7 @@
       <c r="J1355" s="7"/>
       <c r="K1355" s="7"/>
       <c r="L1355" s="4" t="s">
-        <v>4250</v>
+        <v>4292</v>
       </c>
       <c r="M1355" s="5" t="s">
         <v>22</v>
@@ -72787,21 +73195,21 @@
         <v>4876</v>
       </c>
       <c r="O1355" s="4" t="s">
-        <v>6920</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="1356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1356" s="4" t="s">
-        <v>4251</v>
+        <v>4136</v>
       </c>
       <c r="B1356" s="2" t="s">
-        <v>4252</v>
+        <v>4137</v>
       </c>
       <c r="C1356" s="2">
-        <v>766798</v>
+        <v>600000</v>
       </c>
       <c r="D1356" s="2">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E1356" s="2" t="s">
         <v>4138</v>
@@ -72815,7 +73223,7 @@
       <c r="J1356" s="7"/>
       <c r="K1356" s="7"/>
       <c r="L1356" s="4" t="s">
-        <v>4253</v>
+        <v>4139</v>
       </c>
       <c r="M1356" s="5" t="s">
         <v>22</v>
@@ -72824,21 +73232,21 @@
         <v>4876</v>
       </c>
       <c r="O1356" s="4" t="s">
-        <v>6921</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="1357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1357" s="4" t="s">
-        <v>4254</v>
+        <v>4140</v>
       </c>
       <c r="B1357" s="2" t="s">
-        <v>4255</v>
+        <v>4141</v>
       </c>
       <c r="C1357" s="2">
-        <v>1695414</v>
+        <v>504347</v>
       </c>
       <c r="D1357" s="2">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="E1357" s="2" t="s">
         <v>4138</v>
@@ -72852,7 +73260,7 @@
       <c r="J1357" s="7"/>
       <c r="K1357" s="7"/>
       <c r="L1357" s="4" t="s">
-        <v>4256</v>
+        <v>4142</v>
       </c>
       <c r="M1357" s="5" t="s">
         <v>22</v>
@@ -72861,21 +73269,21 @@
         <v>4876</v>
       </c>
       <c r="O1357" s="4" t="s">
-        <v>6922</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="1358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1358" s="4" t="s">
-        <v>4257</v>
+        <v>4143</v>
       </c>
       <c r="B1358" s="2" t="s">
-        <v>4258</v>
+        <v>4144</v>
       </c>
       <c r="C1358" s="2">
-        <v>2055336</v>
+        <v>504347</v>
       </c>
       <c r="D1358" s="2">
-        <v>6</v>
+        <v>27300</v>
       </c>
       <c r="E1358" s="2" t="s">
         <v>4138</v>
@@ -72889,7 +73297,7 @@
       <c r="J1358" s="7"/>
       <c r="K1358" s="7"/>
       <c r="L1358" s="4" t="s">
-        <v>4259</v>
+        <v>4145</v>
       </c>
       <c r="M1358" s="5" t="s">
         <v>22</v>
@@ -72898,21 +73306,21 @@
         <v>4876</v>
       </c>
       <c r="O1358" s="4" t="s">
-        <v>6923</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="1359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1359" s="4" t="s">
-        <v>4260</v>
+        <v>4146</v>
       </c>
       <c r="B1359" s="2" t="s">
-        <v>4261</v>
+        <v>4147</v>
       </c>
       <c r="C1359" s="2">
-        <v>2055336</v>
+        <v>334945</v>
       </c>
       <c r="D1359" s="2">
-        <v>3</v>
+        <v>834</v>
       </c>
       <c r="E1359" s="2" t="s">
         <v>4138</v>
@@ -72926,7 +73334,7 @@
       <c r="J1359" s="7"/>
       <c r="K1359" s="7"/>
       <c r="L1359" s="4" t="s">
-        <v>4262</v>
+        <v>4148</v>
       </c>
       <c r="M1359" s="5" t="s">
         <v>22</v>
@@ -72935,21 +73343,21 @@
         <v>4876</v>
       </c>
       <c r="O1359" s="4" t="s">
-        <v>6924</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="1360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1360" s="4" t="s">
-        <v>4263</v>
+        <v>4149</v>
       </c>
       <c r="B1360" s="2" t="s">
-        <v>4264</v>
+        <v>4150</v>
       </c>
       <c r="C1360" s="2">
-        <v>1146245</v>
+        <v>0</v>
       </c>
       <c r="D1360" s="2">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E1360" s="2" t="s">
         <v>4138</v>
@@ -72963,7 +73371,7 @@
       <c r="J1360" s="7"/>
       <c r="K1360" s="7"/>
       <c r="L1360" s="4" t="s">
-        <v>4265</v>
+        <v>4151</v>
       </c>
       <c r="M1360" s="5" t="s">
         <v>22</v>
@@ -72972,21 +73380,21 @@
         <v>4876</v>
       </c>
       <c r="O1360" s="4" t="s">
-        <v>6925</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="1361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1361" s="4" t="s">
-        <v>4266</v>
+        <v>4152</v>
       </c>
       <c r="B1361" s="2" t="s">
-        <v>4267</v>
+        <v>4153</v>
       </c>
       <c r="C1361" s="2">
-        <v>2490119</v>
+        <v>412445</v>
       </c>
       <c r="D1361" s="2">
-        <v>8</v>
+        <v>770</v>
       </c>
       <c r="E1361" s="2" t="s">
         <v>4138</v>
@@ -73000,7 +73408,7 @@
       <c r="J1361" s="7"/>
       <c r="K1361" s="7"/>
       <c r="L1361" s="4" t="s">
-        <v>4268</v>
+        <v>4154</v>
       </c>
       <c r="M1361" s="5" t="s">
         <v>22</v>
@@ -73009,18 +73417,18 @@
         <v>4876</v>
       </c>
       <c r="O1361" s="4" t="s">
-        <v>6926</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="1362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1362" s="4" t="s">
-        <v>4269</v>
+        <v>4155</v>
       </c>
       <c r="B1362" s="2" t="s">
-        <v>4270</v>
+        <v>4156</v>
       </c>
       <c r="C1362" s="2">
-        <v>711462</v>
+        <v>518548</v>
       </c>
       <c r="D1362" s="2">
         <v>0</v>
@@ -73037,7 +73445,7 @@
       <c r="J1362" s="7"/>
       <c r="K1362" s="7"/>
       <c r="L1362" s="4" t="s">
-        <v>4271</v>
+        <v>4157</v>
       </c>
       <c r="M1362" s="5" t="s">
         <v>22</v>
@@ -73046,18 +73454,18 @@
         <v>4876</v>
       </c>
       <c r="O1362" s="4" t="s">
-        <v>6927</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="1363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1363" s="4" t="s">
-        <v>4272</v>
+        <v>4158</v>
       </c>
       <c r="B1363" s="2" t="s">
-        <v>4273</v>
+        <v>4159</v>
       </c>
       <c r="C1363" s="2">
-        <v>711462</v>
+        <v>518548</v>
       </c>
       <c r="D1363" s="2">
         <v>0</v>
@@ -73074,7 +73482,7 @@
       <c r="J1363" s="7"/>
       <c r="K1363" s="7"/>
       <c r="L1363" s="4" t="s">
-        <v>4274</v>
+        <v>4160</v>
       </c>
       <c r="M1363" s="5" t="s">
         <v>22</v>
@@ -73083,21 +73491,21 @@
         <v>4876</v>
       </c>
       <c r="O1363" s="4" t="s">
-        <v>6928</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="1364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1364" s="4" t="s">
-        <v>4275</v>
+        <v>4161</v>
       </c>
       <c r="B1364" s="2" t="s">
-        <v>4276</v>
+        <v>4162</v>
       </c>
       <c r="C1364" s="2">
-        <v>1106719</v>
+        <v>258000</v>
       </c>
       <c r="D1364" s="2">
-        <v>0</v>
+        <v>3439</v>
       </c>
       <c r="E1364" s="2" t="s">
         <v>4138</v>
@@ -73111,7 +73519,7 @@
       <c r="J1364" s="7"/>
       <c r="K1364" s="7"/>
       <c r="L1364" s="4" t="s">
-        <v>4277</v>
+        <v>4163</v>
       </c>
       <c r="M1364" s="5" t="s">
         <v>22</v>
@@ -73120,21 +73528,21 @@
         <v>4876</v>
       </c>
       <c r="O1364" s="4" t="s">
-        <v>6929</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="1365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1365" s="4" t="s">
-        <v>4278</v>
+        <v>4164</v>
       </c>
       <c r="B1365" s="2" t="s">
-        <v>4279</v>
+        <v>4165</v>
       </c>
       <c r="C1365" s="2">
-        <v>790514</v>
+        <v>1333043</v>
       </c>
       <c r="D1365" s="2">
-        <v>0</v>
+        <v>3610</v>
       </c>
       <c r="E1365" s="2" t="s">
         <v>4138</v>
@@ -73148,7 +73556,7 @@
       <c r="J1365" s="7"/>
       <c r="K1365" s="7"/>
       <c r="L1365" s="4" t="s">
-        <v>4280</v>
+        <v>4166</v>
       </c>
       <c r="M1365" s="5" t="s">
         <v>22</v>
@@ -73157,21 +73565,21 @@
         <v>4876</v>
       </c>
       <c r="O1365" s="4" t="s">
-        <v>6930</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="1366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1366" s="4" t="s">
-        <v>4281</v>
+        <v>4167</v>
       </c>
       <c r="B1366" s="2" t="s">
-        <v>4282</v>
+        <v>4168</v>
       </c>
       <c r="C1366" s="2">
-        <v>2569170</v>
+        <v>1373912</v>
       </c>
       <c r="D1366" s="2">
-        <v>14</v>
+        <v>3408</v>
       </c>
       <c r="E1366" s="2" t="s">
         <v>4138</v>
@@ -73185,7 +73593,7 @@
       <c r="J1366" s="7"/>
       <c r="K1366" s="7"/>
       <c r="L1366" s="4" t="s">
-        <v>4283</v>
+        <v>4169</v>
       </c>
       <c r="M1366" s="5" t="s">
         <v>22</v>
@@ -73194,21 +73602,21 @@
         <v>4876</v>
       </c>
       <c r="O1366" s="4" t="s">
-        <v>6931</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="1367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1367" s="4" t="s">
-        <v>4284</v>
+        <v>4170</v>
       </c>
       <c r="B1367" s="2" t="s">
-        <v>4285</v>
+        <v>4171</v>
       </c>
       <c r="C1367" s="2">
-        <v>1067194</v>
+        <v>1373912</v>
       </c>
       <c r="D1367" s="2">
-        <v>2</v>
+        <v>576</v>
       </c>
       <c r="E1367" s="2" t="s">
         <v>4138</v>
@@ -73222,7 +73630,7 @@
       <c r="J1367" s="7"/>
       <c r="K1367" s="7"/>
       <c r="L1367" s="4" t="s">
-        <v>4286</v>
+        <v>4172</v>
       </c>
       <c r="M1367" s="5" t="s">
         <v>22</v>
@@ -73231,21 +73639,21 @@
         <v>4876</v>
       </c>
       <c r="O1367" s="4" t="s">
-        <v>6932</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="1368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1368" s="4" t="s">
-        <v>4287</v>
+        <v>4173</v>
       </c>
       <c r="B1368" s="2" t="s">
-        <v>4288</v>
+        <v>4174</v>
       </c>
       <c r="C1368" s="2">
-        <v>1098814</v>
+        <v>1836087</v>
       </c>
       <c r="D1368" s="2">
-        <v>0</v>
+        <v>1366</v>
       </c>
       <c r="E1368" s="2" t="s">
         <v>4138</v>
@@ -73259,7 +73667,7 @@
       <c r="J1368" s="7"/>
       <c r="K1368" s="7"/>
       <c r="L1368" s="4" t="s">
-        <v>4289</v>
+        <v>4175</v>
       </c>
       <c r="M1368" s="5" t="s">
         <v>22</v>
@@ -73268,21 +73676,21 @@
         <v>4876</v>
       </c>
       <c r="O1368" s="4" t="s">
-        <v>6933</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="1369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1369" s="4" t="s">
-        <v>4290</v>
+        <v>4176</v>
       </c>
       <c r="B1369" s="2" t="s">
-        <v>4291</v>
+        <v>4177</v>
       </c>
       <c r="C1369" s="2">
-        <v>766798</v>
+        <v>2293862</v>
       </c>
       <c r="D1369" s="2">
-        <v>15</v>
+        <v>13500</v>
       </c>
       <c r="E1369" s="2" t="s">
         <v>4138</v>
@@ -73296,7 +73704,7 @@
       <c r="J1369" s="7"/>
       <c r="K1369" s="7"/>
       <c r="L1369" s="4" t="s">
-        <v>4292</v>
+        <v>4178</v>
       </c>
       <c r="M1369" s="5" t="s">
         <v>22</v>
@@ -73305,7 +73713,7 @@
         <v>4876</v>
       </c>
       <c r="O1369" s="4" t="s">
-        <v>6934</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="1370" spans="1:15" x14ac:dyDescent="0.2">
@@ -88356,6 +88764,986 @@
       <c r="O1776" s="12" t="s">
         <v>7340</v>
       </c>
+    </row>
+    <row r="1777" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1777" s="12" t="s">
+        <v>7384</v>
+      </c>
+      <c r="B1777" s="12" t="s">
+        <v>7356</v>
+      </c>
+      <c r="C1777" s="12">
+        <v>7523320</v>
+      </c>
+      <c r="D1777" s="12">
+        <v>42</v>
+      </c>
+      <c r="E1777" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1777" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1777" s="13"/>
+      <c r="H1777" s="13"/>
+      <c r="I1777" s="13"/>
+      <c r="J1777" s="13"/>
+      <c r="K1777" s="13"/>
+      <c r="L1777" s="12" t="s">
+        <v>7412</v>
+      </c>
+      <c r="M1777" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1777" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1777" s="13"/>
+    </row>
+    <row r="1778" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1778" s="12" t="s">
+        <v>7385</v>
+      </c>
+      <c r="B1778" s="12" t="s">
+        <v>7357</v>
+      </c>
+      <c r="C1778" s="12">
+        <v>7687747</v>
+      </c>
+      <c r="D1778" s="12">
+        <v>21</v>
+      </c>
+      <c r="E1778" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1778" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1778" s="13"/>
+      <c r="H1778" s="13"/>
+      <c r="I1778" s="13"/>
+      <c r="J1778" s="13"/>
+      <c r="K1778" s="13"/>
+      <c r="L1778" s="12" t="s">
+        <v>7413</v>
+      </c>
+      <c r="M1778" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1778" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1778" s="13"/>
+    </row>
+    <row r="1779" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1779" s="12" t="s">
+        <v>7386</v>
+      </c>
+      <c r="B1779" s="12" t="s">
+        <v>7358</v>
+      </c>
+      <c r="C1779" s="12">
+        <v>7633202</v>
+      </c>
+      <c r="D1779" s="12">
+        <v>21</v>
+      </c>
+      <c r="E1779" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1779" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1779" s="13"/>
+      <c r="H1779" s="13"/>
+      <c r="I1779" s="13"/>
+      <c r="J1779" s="13"/>
+      <c r="K1779" s="13"/>
+      <c r="L1779" s="12" t="s">
+        <v>7414</v>
+      </c>
+      <c r="M1779" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1779" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1779" s="13"/>
+    </row>
+    <row r="1780" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1780" s="12" t="s">
+        <v>7387</v>
+      </c>
+      <c r="B1780" s="12" t="s">
+        <v>7359</v>
+      </c>
+      <c r="C1780" s="12">
+        <v>7018182</v>
+      </c>
+      <c r="D1780" s="12">
+        <v>21</v>
+      </c>
+      <c r="E1780" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1780" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1780" s="13"/>
+      <c r="H1780" s="13"/>
+      <c r="I1780" s="13"/>
+      <c r="J1780" s="13"/>
+      <c r="K1780" s="13"/>
+      <c r="L1780" s="12" t="s">
+        <v>7415</v>
+      </c>
+      <c r="M1780" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1780" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1780" s="13"/>
+    </row>
+    <row r="1781" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1781" s="12" t="s">
+        <v>7388</v>
+      </c>
+      <c r="B1781" s="12" t="s">
+        <v>7360</v>
+      </c>
+      <c r="C1781" s="12">
+        <v>6686166</v>
+      </c>
+      <c r="D1781" s="12">
+        <v>21</v>
+      </c>
+      <c r="E1781" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1781" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1781" s="13"/>
+      <c r="H1781" s="13"/>
+      <c r="I1781" s="13"/>
+      <c r="J1781" s="13"/>
+      <c r="K1781" s="13"/>
+      <c r="L1781" s="12" t="s">
+        <v>7416</v>
+      </c>
+      <c r="M1781" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1781" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1781" s="13"/>
+    </row>
+    <row r="1782" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1782" s="12" t="s">
+        <v>7389</v>
+      </c>
+      <c r="B1782" s="12" t="s">
+        <v>7361</v>
+      </c>
+      <c r="C1782" s="12">
+        <v>10727273</v>
+      </c>
+      <c r="D1782" s="12">
+        <v>42</v>
+      </c>
+      <c r="E1782" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1782" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1782" s="13"/>
+      <c r="H1782" s="13"/>
+      <c r="I1782" s="13"/>
+      <c r="J1782" s="13"/>
+      <c r="K1782" s="13"/>
+      <c r="L1782" s="12" t="s">
+        <v>7417</v>
+      </c>
+      <c r="M1782" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1782" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1782" s="13"/>
+    </row>
+    <row r="1783" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1783" s="12" t="s">
+        <v>7390</v>
+      </c>
+      <c r="B1783" s="12" t="s">
+        <v>7362</v>
+      </c>
+      <c r="C1783" s="12">
+        <v>5894071</v>
+      </c>
+      <c r="D1783" s="12">
+        <v>35</v>
+      </c>
+      <c r="E1783" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1783" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1783" s="13"/>
+      <c r="H1783" s="13"/>
+      <c r="I1783" s="13"/>
+      <c r="J1783" s="13"/>
+      <c r="K1783" s="13"/>
+      <c r="L1783" s="12" t="s">
+        <v>7418</v>
+      </c>
+      <c r="M1783" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1783" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1783" s="13"/>
+    </row>
+    <row r="1784" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1784" s="12" t="s">
+        <v>7391</v>
+      </c>
+      <c r="B1784" s="12" t="s">
+        <v>7363</v>
+      </c>
+      <c r="C1784" s="12">
+        <v>5656917</v>
+      </c>
+      <c r="D1784" s="12">
+        <v>35</v>
+      </c>
+      <c r="E1784" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1784" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1784" s="13"/>
+      <c r="H1784" s="13"/>
+      <c r="I1784" s="13"/>
+      <c r="J1784" s="13"/>
+      <c r="K1784" s="13"/>
+      <c r="L1784" s="12" t="s">
+        <v>7419</v>
+      </c>
+      <c r="M1784" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1784" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1784" s="13"/>
+    </row>
+    <row r="1785" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1785" s="12" t="s">
+        <v>7392</v>
+      </c>
+      <c r="B1785" s="12" t="s">
+        <v>7364</v>
+      </c>
+      <c r="C1785" s="12">
+        <v>7808696</v>
+      </c>
+      <c r="D1785" s="12">
+        <v>21</v>
+      </c>
+      <c r="E1785" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1785" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1785" s="13"/>
+      <c r="H1785" s="13"/>
+      <c r="I1785" s="13"/>
+      <c r="J1785" s="13"/>
+      <c r="K1785" s="13"/>
+      <c r="L1785" s="12" t="s">
+        <v>7420</v>
+      </c>
+      <c r="M1785" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1785" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1785" s="13"/>
+    </row>
+    <row r="1786" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1786" s="12" t="s">
+        <v>7393</v>
+      </c>
+      <c r="B1786" s="12" t="s">
+        <v>7365</v>
+      </c>
+      <c r="C1786" s="12">
+        <v>9698023</v>
+      </c>
+      <c r="D1786" s="12">
+        <v>42</v>
+      </c>
+      <c r="E1786" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1786" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1786" s="13"/>
+      <c r="H1786" s="13"/>
+      <c r="I1786" s="13"/>
+      <c r="J1786" s="13"/>
+      <c r="K1786" s="13"/>
+      <c r="L1786" s="12" t="s">
+        <v>7421</v>
+      </c>
+      <c r="M1786" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1786" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1786" s="13"/>
+    </row>
+    <row r="1787" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1787" s="12" t="s">
+        <v>7394</v>
+      </c>
+      <c r="B1787" s="12" t="s">
+        <v>7366</v>
+      </c>
+      <c r="C1787" s="12">
+        <v>9881423</v>
+      </c>
+      <c r="D1787" s="12">
+        <v>21</v>
+      </c>
+      <c r="E1787" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1787" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1787" s="13"/>
+      <c r="H1787" s="13"/>
+      <c r="I1787" s="13"/>
+      <c r="J1787" s="13"/>
+      <c r="K1787" s="13"/>
+      <c r="L1787" s="12" t="s">
+        <v>7422</v>
+      </c>
+      <c r="M1787" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1787" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1787" s="13"/>
+    </row>
+    <row r="1788" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1788" s="12" t="s">
+        <v>7395</v>
+      </c>
+      <c r="B1788" s="12" t="s">
+        <v>7367</v>
+      </c>
+      <c r="C1788" s="12">
+        <v>11539921</v>
+      </c>
+      <c r="D1788" s="12">
+        <v>28</v>
+      </c>
+      <c r="E1788" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1788" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1788" s="13"/>
+      <c r="H1788" s="13"/>
+      <c r="I1788" s="13"/>
+      <c r="J1788" s="13"/>
+      <c r="K1788" s="13"/>
+      <c r="L1788" s="12" t="s">
+        <v>7423</v>
+      </c>
+      <c r="M1788" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1788" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1788" s="13"/>
+    </row>
+    <row r="1789" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1789" s="12" t="s">
+        <v>7396</v>
+      </c>
+      <c r="B1789" s="12" t="s">
+        <v>7368</v>
+      </c>
+      <c r="C1789" s="12">
+        <v>6719368</v>
+      </c>
+      <c r="D1789" s="12">
+        <v>63</v>
+      </c>
+      <c r="E1789" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1789" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1789" s="13"/>
+      <c r="H1789" s="13"/>
+      <c r="I1789" s="13"/>
+      <c r="J1789" s="13"/>
+      <c r="K1789" s="13"/>
+      <c r="L1789" s="12" t="s">
+        <v>7424</v>
+      </c>
+      <c r="M1789" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1789" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1789" s="13"/>
+    </row>
+    <row r="1790" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1790" s="12" t="s">
+        <v>7397</v>
+      </c>
+      <c r="B1790" s="12" t="s">
+        <v>7369</v>
+      </c>
+      <c r="C1790" s="12">
+        <v>7747036</v>
+      </c>
+      <c r="D1790" s="12">
+        <v>63</v>
+      </c>
+      <c r="E1790" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1790" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1790" s="13"/>
+      <c r="H1790" s="13"/>
+      <c r="I1790" s="13"/>
+      <c r="J1790" s="13"/>
+      <c r="K1790" s="13"/>
+      <c r="L1790" s="12" t="s">
+        <v>7425</v>
+      </c>
+      <c r="M1790" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1790" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1790" s="13"/>
+    </row>
+    <row r="1791" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1791" s="12" t="s">
+        <v>7370</v>
+      </c>
+      <c r="B1791" s="12" t="s">
+        <v>7342</v>
+      </c>
+      <c r="C1791" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1791" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1791" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1791" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1791" s="13"/>
+      <c r="H1791" s="13"/>
+      <c r="I1791" s="13"/>
+      <c r="J1791" s="13"/>
+      <c r="K1791" s="13"/>
+      <c r="L1791" s="12" t="s">
+        <v>7398</v>
+      </c>
+      <c r="M1791" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1791" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1791" s="13"/>
+    </row>
+    <row r="1792" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1792" s="12" t="s">
+        <v>7371</v>
+      </c>
+      <c r="B1792" s="12" t="s">
+        <v>7343</v>
+      </c>
+      <c r="C1792" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1792" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1792" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1792" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1792" s="13"/>
+      <c r="H1792" s="13"/>
+      <c r="I1792" s="13"/>
+      <c r="J1792" s="13"/>
+      <c r="K1792" s="13"/>
+      <c r="L1792" s="12" t="s">
+        <v>7399</v>
+      </c>
+      <c r="M1792" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1792" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1792" s="13"/>
+    </row>
+    <row r="1793" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1793" s="12" t="s">
+        <v>7372</v>
+      </c>
+      <c r="B1793" s="12" t="s">
+        <v>7344</v>
+      </c>
+      <c r="C1793" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1793" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1793" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1793" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1793" s="13"/>
+      <c r="H1793" s="13"/>
+      <c r="I1793" s="13"/>
+      <c r="J1793" s="13"/>
+      <c r="K1793" s="13"/>
+      <c r="L1793" s="12" t="s">
+        <v>7400</v>
+      </c>
+      <c r="M1793" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1793" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1793" s="13"/>
+    </row>
+    <row r="1794" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1794" s="12" t="s">
+        <v>7373</v>
+      </c>
+      <c r="B1794" s="12" t="s">
+        <v>7345</v>
+      </c>
+      <c r="C1794" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1794" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1794" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1794" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1794" s="13"/>
+      <c r="H1794" s="13"/>
+      <c r="I1794" s="13"/>
+      <c r="J1794" s="13"/>
+      <c r="K1794" s="13"/>
+      <c r="L1794" s="12" t="s">
+        <v>7401</v>
+      </c>
+      <c r="M1794" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1794" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1794" s="13"/>
+    </row>
+    <row r="1795" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1795" s="12" t="s">
+        <v>7374</v>
+      </c>
+      <c r="B1795" s="12" t="s">
+        <v>7346</v>
+      </c>
+      <c r="C1795" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1795" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1795" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1795" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1795" s="13"/>
+      <c r="H1795" s="13"/>
+      <c r="I1795" s="13"/>
+      <c r="J1795" s="13"/>
+      <c r="K1795" s="13"/>
+      <c r="L1795" s="12" t="s">
+        <v>7402</v>
+      </c>
+      <c r="M1795" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1795" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1795" s="13"/>
+    </row>
+    <row r="1796" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1796" s="12" t="s">
+        <v>7375</v>
+      </c>
+      <c r="B1796" s="12" t="s">
+        <v>7347</v>
+      </c>
+      <c r="C1796" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1796" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1796" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1796" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1796" s="13"/>
+      <c r="H1796" s="13"/>
+      <c r="I1796" s="13"/>
+      <c r="J1796" s="13"/>
+      <c r="K1796" s="13"/>
+      <c r="L1796" s="12" t="s">
+        <v>7403</v>
+      </c>
+      <c r="M1796" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1796" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1796" s="13"/>
+    </row>
+    <row r="1797" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1797" s="12" t="s">
+        <v>7376</v>
+      </c>
+      <c r="B1797" s="12" t="s">
+        <v>7348</v>
+      </c>
+      <c r="C1797" s="12">
+        <v>5894017</v>
+      </c>
+      <c r="D1797" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1797" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1797" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1797" s="13"/>
+      <c r="H1797" s="13"/>
+      <c r="I1797" s="13"/>
+      <c r="J1797" s="13"/>
+      <c r="K1797" s="13"/>
+      <c r="L1797" s="12" t="s">
+        <v>7404</v>
+      </c>
+      <c r="M1797" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1797" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1797" s="13"/>
+    </row>
+    <row r="1798" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1798" s="12" t="s">
+        <v>7377</v>
+      </c>
+      <c r="B1798" s="12" t="s">
+        <v>7349</v>
+      </c>
+      <c r="C1798" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1798" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1798" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1798" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1798" s="13"/>
+      <c r="H1798" s="13"/>
+      <c r="I1798" s="13"/>
+      <c r="J1798" s="13"/>
+      <c r="K1798" s="13"/>
+      <c r="L1798" s="12" t="s">
+        <v>7405</v>
+      </c>
+      <c r="M1798" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1798" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1798" s="13"/>
+    </row>
+    <row r="1799" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1799" s="12" t="s">
+        <v>7378</v>
+      </c>
+      <c r="B1799" s="12" t="s">
+        <v>7350</v>
+      </c>
+      <c r="C1799" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1799" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1799" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1799" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1799" s="13"/>
+      <c r="H1799" s="13"/>
+      <c r="I1799" s="13"/>
+      <c r="J1799" s="13"/>
+      <c r="K1799" s="13"/>
+      <c r="L1799" s="12" t="s">
+        <v>7406</v>
+      </c>
+      <c r="M1799" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1799" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1799" s="13"/>
+    </row>
+    <row r="1800" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1800" s="12" t="s">
+        <v>7379</v>
+      </c>
+      <c r="B1800" s="12" t="s">
+        <v>7351</v>
+      </c>
+      <c r="C1800" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1800" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1800" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1800" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1800" s="13"/>
+      <c r="H1800" s="13"/>
+      <c r="I1800" s="13"/>
+      <c r="J1800" s="13"/>
+      <c r="K1800" s="13"/>
+      <c r="L1800" s="12" t="s">
+        <v>7407</v>
+      </c>
+      <c r="M1800" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1800" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1800" s="13"/>
+    </row>
+    <row r="1801" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1801" s="12" t="s">
+        <v>7380</v>
+      </c>
+      <c r="B1801" s="12" t="s">
+        <v>7352</v>
+      </c>
+      <c r="C1801" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1801" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1801" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1801" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1801" s="13"/>
+      <c r="H1801" s="13"/>
+      <c r="I1801" s="13"/>
+      <c r="J1801" s="13"/>
+      <c r="K1801" s="13"/>
+      <c r="L1801" s="12" t="s">
+        <v>7408</v>
+      </c>
+      <c r="M1801" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1801" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1801" s="13"/>
+    </row>
+    <row r="1802" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1802" s="12" t="s">
+        <v>7381</v>
+      </c>
+      <c r="B1802" s="12" t="s">
+        <v>7353</v>
+      </c>
+      <c r="C1802" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1802" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1802" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1802" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1802" s="13"/>
+      <c r="H1802" s="13"/>
+      <c r="I1802" s="13"/>
+      <c r="J1802" s="13"/>
+      <c r="K1802" s="13"/>
+      <c r="L1802" s="12" t="s">
+        <v>7409</v>
+      </c>
+      <c r="M1802" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1802" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1802" s="13"/>
+    </row>
+    <row r="1803" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1803" s="12" t="s">
+        <v>7382</v>
+      </c>
+      <c r="B1803" s="12" t="s">
+        <v>7354</v>
+      </c>
+      <c r="C1803" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1803" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1803" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1803" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1803" s="13"/>
+      <c r="H1803" s="13"/>
+      <c r="I1803" s="13"/>
+      <c r="J1803" s="13"/>
+      <c r="K1803" s="13"/>
+      <c r="L1803" s="12" t="s">
+        <v>7410</v>
+      </c>
+      <c r="M1803" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1803" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1803" s="13"/>
+    </row>
+    <row r="1804" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1804" s="12" t="s">
+        <v>7383</v>
+      </c>
+      <c r="B1804" s="12" t="s">
+        <v>7355</v>
+      </c>
+      <c r="C1804" s="12">
+        <v>0</v>
+      </c>
+      <c r="D1804" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1804" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="F1804" s="14" t="s">
+        <v>4820</v>
+      </c>
+      <c r="G1804" s="13"/>
+      <c r="H1804" s="13"/>
+      <c r="I1804" s="13"/>
+      <c r="J1804" s="13"/>
+      <c r="K1804" s="13"/>
+      <c r="L1804" s="12" t="s">
+        <v>7411</v>
+      </c>
+      <c r="M1804" s="13">
+        <v>300</v>
+      </c>
+      <c r="N1804" s="14" t="s">
+        <v>4876</v>
+      </c>
+      <c r="O1804" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E1529"/>
@@ -88368,10 +89756,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -88394,9 +89782,7 @@
       <c r="B2" s="13">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -88405,9 +89791,7 @@
       <c r="B3" s="13">
         <v>10</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>146</v>
-      </c>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -88416,9 +89800,7 @@
       <c r="B4" s="13">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>5339</v>
-      </c>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -88427,9 +89809,7 @@
       <c r="B5" s="13">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>5340</v>
-      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -88438,9 +89818,7 @@
       <c r="B6" s="13">
         <v>25</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>5333</v>
-      </c>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -88449,9 +89827,7 @@
       <c r="B7" s="13">
         <v>30</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>5341</v>
-      </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -88460,9 +89836,7 @@
       <c r="B8" s="13">
         <v>35</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -88471,9 +89845,7 @@
       <c r="B9" s="13">
         <v>40</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>5342</v>
-      </c>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -88482,9 +89854,7 @@
       <c r="B10" s="13">
         <v>45</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>5343</v>
-      </c>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -88493,9 +89863,7 @@
       <c r="B11" s="13">
         <v>50</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>2565</v>
-      </c>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -88504,9 +89872,7 @@
       <c r="B12" s="13">
         <v>55</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>4029</v>
-      </c>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -88515,9 +89881,7 @@
       <c r="B13" s="13">
         <v>60</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>2626</v>
-      </c>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -88526,9 +89890,7 @@
       <c r="B14" s="13">
         <v>65</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>2721</v>
-      </c>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -88546,1248 +89908,1240 @@
       <c r="B16" s="13">
         <v>75</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>5345</v>
-      </c>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>2326</v>
+        <v>7341</v>
       </c>
       <c r="B17" s="13">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>739</v>
+        <v>2326</v>
       </c>
       <c r="B18" s="13">
-        <v>85</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>5335</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>4792</v>
+        <v>739</v>
       </c>
       <c r="B19" s="13">
-        <v>90</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>4036</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>2060</v>
+        <v>4792</v>
       </c>
       <c r="B20" s="13">
-        <v>95</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>5336</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>2565</v>
+        <v>2060</v>
       </c>
       <c r="B21" s="13">
-        <v>100</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>5337</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>1440</v>
+        <v>2565</v>
       </c>
       <c r="B22" s="13">
-        <v>105</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>4370</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>1731</v>
+        <v>1440</v>
       </c>
       <c r="B23" s="13">
-        <v>110</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>5338</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>2711</v>
+        <v>1731</v>
       </c>
       <c r="B24" s="13">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>2721</v>
+        <v>2711</v>
       </c>
       <c r="B25" s="13">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>3880</v>
+        <v>2721</v>
       </c>
       <c r="B26" s="13">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>534</v>
+        <v>3880</v>
       </c>
       <c r="B27" s="13">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>3123</v>
+        <v>534</v>
       </c>
       <c r="B28" s="13">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>4305</v>
+        <v>3123</v>
       </c>
       <c r="B29" s="13">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>171</v>
+        <v>4305</v>
       </c>
       <c r="B30" s="13">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="B31" s="13">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>628</v>
+        <v>343</v>
       </c>
       <c r="B32" s="13">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>124</v>
+        <v>628</v>
       </c>
       <c r="B33" s="13">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>2076</v>
+        <v>124</v>
       </c>
       <c r="B34" s="13">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>2127</v>
+        <v>2076</v>
       </c>
       <c r="B35" s="13">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>4461</v>
+        <v>2127</v>
       </c>
       <c r="B36" s="13">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>4138</v>
+        <v>4461</v>
       </c>
       <c r="B37" s="13">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>2904</v>
+        <v>4138</v>
       </c>
       <c r="B38" s="13">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>5334</v>
+        <v>2904</v>
       </c>
       <c r="B39" s="13">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>5329</v>
+        <v>5334</v>
       </c>
       <c r="B40" s="13">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>4872</v>
+        <v>5329</v>
       </c>
       <c r="B41" s="13">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="B42" s="13">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="B43" s="13">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>4553</v>
+        <v>4874</v>
       </c>
       <c r="B44" s="13">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>74</v>
+        <v>4553</v>
       </c>
       <c r="B45" s="13">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>4295</v>
+        <v>74</v>
       </c>
       <c r="B46" s="13">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>4036</v>
+        <v>4295</v>
       </c>
       <c r="B47" s="13">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>4675</v>
+        <v>4036</v>
       </c>
       <c r="B48" s="13">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>1714</v>
+        <v>4675</v>
       </c>
       <c r="B49" s="13">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>1965</v>
+        <v>1714</v>
       </c>
       <c r="B50" s="13">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>2187</v>
+        <v>1965</v>
       </c>
       <c r="B51" s="13">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>2296</v>
+        <v>2187</v>
       </c>
       <c r="B52" s="13">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>1094</v>
+        <v>2296</v>
       </c>
       <c r="B53" s="13">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>2111</v>
+        <v>1094</v>
       </c>
       <c r="B54" s="13">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>3951</v>
+        <v>2111</v>
       </c>
       <c r="B55" s="13">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>4348</v>
+        <v>3951</v>
       </c>
       <c r="B56" s="13">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>26</v>
+        <v>4348</v>
       </c>
       <c r="B57" s="13">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>3148</v>
+        <v>26</v>
       </c>
       <c r="B58" s="13">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>2818</v>
+        <v>3148</v>
       </c>
       <c r="B59" s="13">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>2900</v>
+        <v>2818</v>
       </c>
       <c r="B60" s="13">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>58</v>
+        <v>2900</v>
       </c>
       <c r="B61" s="13">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B63" s="13">
         <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>3884</v>
-      </c>
-      <c r="B63" s="13">
-        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B64" s="13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>3955</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B65" s="13">
         <v>315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="13">
-        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B66" s="13">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B67" s="13">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B68" s="13">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="B69" s="13">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B70" s="13">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B71" s="13">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B72" s="13">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B73" s="13">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B74" s="13">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>2561</v>
+        <v>333</v>
       </c>
       <c r="B75" s="13">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>419</v>
+        <v>2561</v>
       </c>
       <c r="B76" s="13">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B77" s="13">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B78" s="13">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B79" s="13">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B80" s="13">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B81" s="13">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B82" s="13">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B83" s="13">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B84" s="13">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="B85" s="13">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B86" s="13">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B87" s="13">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>613</v>
+        <v>530</v>
       </c>
       <c r="B88" s="13">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>686</v>
+        <v>613</v>
       </c>
       <c r="B89" s="13">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>1067</v>
+        <v>686</v>
       </c>
       <c r="B90" s="13">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B91" s="13">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="B92" s="13">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>1179</v>
+        <v>1087</v>
       </c>
       <c r="B93" s="13">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>1423</v>
+        <v>1179</v>
       </c>
       <c r="B94" s="13">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="B95" s="13">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="B96" s="13">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>1502</v>
+        <v>1447</v>
       </c>
       <c r="B97" s="13">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>1593</v>
+        <v>1502</v>
       </c>
       <c r="B98" s="13">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="B99" s="13">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>1691</v>
+        <v>1606</v>
       </c>
       <c r="B100" s="13">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="B101" s="13">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>2056</v>
+        <v>1698</v>
       </c>
       <c r="B102" s="13">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>1702</v>
+        <v>2056</v>
       </c>
       <c r="B103" s="13">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B104" s="13">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B105" s="13">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>1727</v>
+        <v>1710</v>
       </c>
       <c r="B106" s="13">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="B107" s="13">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>1760</v>
+        <v>1738</v>
       </c>
       <c r="B108" s="13">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="B109" s="13">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="B110" s="13">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>1952</v>
+        <v>1772</v>
       </c>
       <c r="B111" s="13">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>2029</v>
+        <v>1952</v>
       </c>
       <c r="B112" s="13">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>2147</v>
+        <v>2029</v>
       </c>
       <c r="B113" s="13">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="B114" s="13">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="B115" s="13">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="B116" s="13">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="B117" s="13">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B118" s="13">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
         <v>2173</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B119" s="13">
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13" t="s">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
         <v>2180</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B120" s="13">
         <v>590</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
-        <v>2203</v>
-      </c>
-      <c r="B120" s="13">
-        <v>595</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>2219</v>
+        <v>2203</v>
       </c>
       <c r="B121" s="13">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="B122" s="13">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>2236</v>
+        <v>2223</v>
       </c>
       <c r="B123" s="13">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="B124" s="13">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>2303</v>
+        <v>2243</v>
       </c>
       <c r="B125" s="13">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>2310</v>
+        <v>2303</v>
       </c>
       <c r="B126" s="13">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="B127" s="13">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="B128" s="13">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>2605</v>
+        <v>2318</v>
       </c>
       <c r="B129" s="13">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="B130" s="13">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="B131" s="13">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>2626</v>
+        <v>2613</v>
       </c>
       <c r="B132" s="13">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>2654</v>
+        <v>2626</v>
       </c>
       <c r="B133" s="13">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
       <c r="B134" s="13">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="B135" s="13">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>2780</v>
+        <v>2668</v>
       </c>
       <c r="B136" s="13">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>2808</v>
+        <v>2780</v>
       </c>
       <c r="B137" s="13">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>2852</v>
+        <v>2808</v>
       </c>
       <c r="B138" s="13">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>2874</v>
+        <v>2852</v>
       </c>
       <c r="B139" s="13">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>2887</v>
+        <v>2874</v>
       </c>
       <c r="B140" s="13">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>3115</v>
+        <v>2887</v>
       </c>
       <c r="B141" s="13">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="B142" s="13">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>3152</v>
+        <v>3119</v>
       </c>
       <c r="B143" s="13">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>3159</v>
+        <v>3152</v>
       </c>
       <c r="B144" s="13">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>3242</v>
+        <v>3159</v>
       </c>
       <c r="B145" s="13">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>3995</v>
+        <v>3242</v>
       </c>
       <c r="B146" s="13">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>4011</v>
+        <v>3995</v>
       </c>
       <c r="B147" s="13">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>4015</v>
+        <v>4011</v>
       </c>
       <c r="B148" s="13">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>4022</v>
+        <v>4015</v>
       </c>
       <c r="B149" s="13">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>4029</v>
+        <v>4022</v>
       </c>
       <c r="B150" s="13">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>4079</v>
+        <v>4029</v>
       </c>
       <c r="B151" s="13">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>4089</v>
+        <v>4079</v>
       </c>
       <c r="B152" s="13">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>4102</v>
+        <v>4089</v>
       </c>
       <c r="B153" s="13">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="B154" s="13">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>4134</v>
+        <v>4106</v>
       </c>
       <c r="B155" s="13">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>4315</v>
+        <v>4134</v>
       </c>
       <c r="B156" s="13">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>4322</v>
+        <v>4315</v>
       </c>
       <c r="B157" s="13">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>4326</v>
+        <v>4322</v>
       </c>
       <c r="B158" s="13">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>4370</v>
+        <v>4326</v>
       </c>
       <c r="B159" s="13">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>4389</v>
+        <v>4370</v>
       </c>
       <c r="B160" s="13">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>4393</v>
+        <v>4389</v>
       </c>
       <c r="B161" s="13">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
-        <v>4457</v>
+        <v>4393</v>
       </c>
       <c r="B162" s="13">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>4549</v>
+        <v>4457</v>
       </c>
       <c r="B163" s="13">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
-        <v>4671</v>
+        <v>4549</v>
       </c>
       <c r="B164" s="13">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>4757</v>
+        <v>4671</v>
       </c>
       <c r="B165" s="13">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>4761</v>
+        <v>4757</v>
       </c>
       <c r="B166" s="13">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>4771</v>
+        <v>4761</v>
       </c>
       <c r="B167" s="13">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B168" s="13">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="13" t="s">
         <v>4778</v>
       </c>
-      <c r="B168" s="13">
+      <c r="B169" s="13">
         <v>835</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="13"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B170" s="13"/>
@@ -89836,6 +91190,9 @@
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="13"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
